--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1479" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B0BEDB6-A1EC-4A54-923D-812B0CC7F741}"/>
+  <xr:revisionPtr revIDLastSave="1483" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDAD0846-4159-4DD8-82CF-B47B87C49E27}"/>
   <bookViews>
-    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="548">
   <si>
     <t>num</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Société</t>
-  </si>
-  <si>
-    <t>Greffe, vaccin</t>
   </si>
   <si>
     <t>Santé et bien-être</t>
@@ -1365,9 +1362,6 @@
   </si>
   <si>
     <t>Génétique et médecine</t>
-  </si>
-  <si>
-    <t>Génétique et diagnostic</t>
   </si>
   <si>
     <t>Avis sur les questions éthiques posées par la transmission de l'information scientifique relative à la recherche biologique et médicale. Rapport.</t>
@@ -2014,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2040,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2052,19 +2046,19 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -2076,7 +2070,7 @@
         <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2102,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -2118,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -2147,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -2192,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2236,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -2251,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2274,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
@@ -2318,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
@@ -2333,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -2356,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -2382,11 +2376,11 @@
         <v>137</v>
       </c>
       <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -2394,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
         <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
       </c>
       <c r="K9" s="1">
         <v>44336</v>
@@ -2420,25 +2414,25 @@
         <v>136</v>
       </c>
       <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
         <v>66</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
       </c>
       <c r="K10" s="1">
         <v>44301</v>
@@ -2461,25 +2455,25 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s">
-        <v>72</v>
       </c>
       <c r="K11" s="1">
         <v>44159</v>
@@ -2494,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2505,25 +2499,25 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K12" s="1">
         <v>43853</v>
@@ -2532,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -2543,11 +2537,11 @@
         <v>133</v>
       </c>
       <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
         <v>81</v>
       </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -2555,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="1">
         <v>43727</v>
@@ -2570,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -2584,25 +2578,25 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
         <v>89</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
         <v>90</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
       </c>
       <c r="K14" s="1">
         <v>43727</v>
@@ -2611,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -2631,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -2643,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="1">
         <v>43643</v>
@@ -2658,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -2672,11 +2666,11 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
         <v>98</v>
       </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -2684,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="1">
         <v>43645</v>
@@ -2705,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -2716,10 +2710,10 @@
         <v>43252</v>
       </c>
       <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2728,13 +2722,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s">
         <v>100</v>
-      </c>
-      <c r="J17" t="s">
-        <v>101</v>
       </c>
       <c r="K17" s="1">
         <v>43361</v>
@@ -2743,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -2757,11 +2751,11 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
         <v>110</v>
       </c>
-      <c r="E18" t="s">
-        <v>111</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -2769,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K18" s="1">
         <v>43146</v>
@@ -2784,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2795,10 +2789,10 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2807,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
         <v>112</v>
-      </c>
-      <c r="J19" t="s">
-        <v>113</v>
       </c>
       <c r="K19" s="1">
         <v>43024</v>
@@ -2822,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -2833,10 +2827,10 @@
         <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2845,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" s="1">
         <v>42901</v>
@@ -2860,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2871,11 +2865,11 @@
         <v>125</v>
       </c>
       <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
         <v>124</v>
       </c>
-      <c r="E21" t="s">
-        <v>125</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -2883,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K21" s="1">
         <v>42893</v>
@@ -2898,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2909,11 +2903,11 @@
         <v>124</v>
       </c>
       <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
-        <v>129</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -2921,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K22" s="1">
         <v>42542</v>
@@ -2936,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -2950,11 +2944,11 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
         <v>132</v>
       </c>
-      <c r="E23" t="s">
-        <v>133</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -2962,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" s="1">
         <v>42091</v>
@@ -2977,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2994,11 +2988,11 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
         <v>136</v>
       </c>
-      <c r="E24" t="s">
-        <v>137</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -3006,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K24" s="2">
         <v>41671</v>
@@ -3021,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -3032,16 +3026,16 @@
         <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
         <v>142</v>
-      </c>
-      <c r="E25" t="s">
-        <v>143</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3050,13 +3044,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K25" s="1">
         <v>41455</v>
@@ -3065,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3076,14 +3070,14 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
         <v>147</v>
       </c>
-      <c r="E26" t="s">
-        <v>148</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -3091,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K26" s="1">
         <v>41389</v>
@@ -3120,10 +3114,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3132,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K27" s="1">
         <v>41326</v>
@@ -3147,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -3164,11 +3158,11 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
         <v>157</v>
       </c>
-      <c r="E28" t="s">
-        <v>158</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
@@ -3176,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K28" s="1">
         <v>41179</v>
@@ -3191,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -3208,11 +3202,11 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
         <v>161</v>
       </c>
-      <c r="E29" t="s">
-        <v>162</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
@@ -3220,13 +3214,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" t="s">
         <v>159</v>
-      </c>
-      <c r="J29" t="s">
-        <v>160</v>
       </c>
       <c r="K29" s="1">
         <v>40962</v>
@@ -3235,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3246,11 +3240,11 @@
         <v>116</v>
       </c>
       <c r="D30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
         <v>165</v>
       </c>
-      <c r="E30" t="s">
-        <v>166</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
@@ -3258,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K30" s="1">
         <v>40962</v>
@@ -3273,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3284,11 +3278,11 @@
         <v>115</v>
       </c>
       <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
         <v>169</v>
       </c>
-      <c r="E31" t="s">
-        <v>170</v>
-      </c>
       <c r="F31">
         <v>0</v>
       </c>
@@ -3296,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K31" s="1">
         <v>40640</v>
@@ -3322,14 +3316,14 @@
         <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" t="s">
         <v>173</v>
       </c>
-      <c r="E32" t="s">
-        <v>174</v>
-      </c>
       <c r="F32">
         <v>0</v>
       </c>
@@ -3337,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K32" s="1">
         <v>40668</v>
@@ -3352,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -3366,11 +3360,11 @@
         <v>113</v>
       </c>
       <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" t="s">
         <v>177</v>
       </c>
-      <c r="E33" t="s">
-        <v>178</v>
-      </c>
       <c r="F33">
         <v>0</v>
       </c>
@@ -3378,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K33" s="1">
         <v>40584</v>
@@ -3393,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3407,11 +3401,11 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" t="s">
         <v>182</v>
       </c>
-      <c r="E34" t="s">
-        <v>183</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
@@ -3419,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K34" s="1">
         <v>40472</v>
@@ -3434,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -3445,10 +3439,10 @@
         <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -3460,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K35" s="1">
         <v>40185</v>
@@ -3475,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -3489,13 +3483,13 @@
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3504,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K36" s="1">
         <v>40269</v>
@@ -3519,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3533,11 +3527,11 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" t="s">
         <v>194</v>
       </c>
-      <c r="E37" t="s">
-        <v>195</v>
-      </c>
       <c r="F37">
         <v>0</v>
       </c>
@@ -3545,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K37" s="1">
         <v>40213</v>
@@ -3571,14 +3565,14 @@
         <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" t="s">
         <v>198</v>
       </c>
-      <c r="E38" t="s">
-        <v>199</v>
-      </c>
       <c r="F38">
         <v>0</v>
       </c>
@@ -3586,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K38" s="1">
         <v>40129</v>
@@ -3601,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -3615,11 +3609,11 @@
         <v>107</v>
       </c>
       <c r="D39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" t="s">
         <v>203</v>
       </c>
-      <c r="E39" t="s">
-        <v>204</v>
-      </c>
       <c r="F39">
         <v>0</v>
       </c>
@@ -3627,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K39" s="1">
         <v>40101</v>
@@ -3642,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -3653,14 +3647,14 @@
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" t="s">
         <v>207</v>
       </c>
-      <c r="E40" t="s">
-        <v>208</v>
-      </c>
       <c r="F40">
         <v>0</v>
       </c>
@@ -3668,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K40" s="1">
         <v>39849</v>
@@ -3689,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -3700,7 +3694,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -3712,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K41" s="1">
         <v>39730</v>
@@ -3727,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -3741,10 +3735,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3753,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K42" s="1">
         <v>39597</v>
@@ -3774,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -3785,14 +3779,14 @@
         <v>39127</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" t="s">
         <v>218</v>
       </c>
-      <c r="E43" t="s">
-        <v>219</v>
-      </c>
       <c r="F43">
         <v>0</v>
       </c>
@@ -3800,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K43" s="1">
         <v>39422</v>
@@ -3815,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -3832,14 +3826,14 @@
         <v>38543</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" t="s">
         <v>224</v>
       </c>
-      <c r="E44" t="s">
-        <v>225</v>
-      </c>
       <c r="F44">
         <v>0</v>
       </c>
@@ -3847,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" t="s">
         <v>222</v>
-      </c>
-      <c r="J44" t="s">
-        <v>223</v>
       </c>
       <c r="K44" s="1">
         <v>39394</v>
@@ -3862,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -3876,11 +3870,11 @@
         <v>101</v>
       </c>
       <c r="D45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" t="s">
         <v>242</v>
       </c>
-      <c r="E45" t="s">
-        <v>243</v>
-      </c>
       <c r="F45">
         <v>0</v>
       </c>
@@ -3888,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K45" s="1">
         <v>39261</v>
@@ -3903,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -3917,7 +3911,7 @@
         <v>39358</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -3932,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K46" s="1">
         <v>39364</v>
@@ -3953,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -3961,14 +3955,14 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" t="s">
         <v>251</v>
       </c>
-      <c r="E47" t="s">
-        <v>252</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -3976,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K47" s="1">
         <v>39329</v>
@@ -3991,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -4008,11 +4002,11 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" t="s">
         <v>256</v>
       </c>
-      <c r="E48" t="s">
-        <v>257</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
@@ -4020,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K48" s="1">
         <v>39253</v>
@@ -4049,14 +4043,14 @@
         <v>38727</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D49" t="s">
+        <v>259</v>
+      </c>
+      <c r="E49" t="s">
         <v>260</v>
       </c>
-      <c r="E49" t="s">
-        <v>261</v>
-      </c>
       <c r="F49">
         <v>0</v>
       </c>
@@ -4064,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K49" s="1">
         <v>39212</v>
@@ -4079,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -4096,11 +4090,11 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" t="s">
         <v>266</v>
       </c>
-      <c r="E50" t="s">
-        <v>267</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
@@ -4108,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K50" s="1">
         <v>39148</v>
@@ -4123,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4137,14 +4131,14 @@
         <v>38813</v>
       </c>
       <c r="C51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D51" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" t="s">
         <v>270</v>
       </c>
-      <c r="E51" t="s">
-        <v>271</v>
-      </c>
       <c r="F51">
         <v>0</v>
       </c>
@@ -4152,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K51" s="1">
         <v>39119</v>
@@ -4167,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -4184,13 +4178,13 @@
         <v>38355</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4199,13 +4193,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
+        <v>272</v>
+      </c>
+      <c r="J52" t="s">
         <v>273</v>
-      </c>
-      <c r="J52" t="s">
-        <v>274</v>
       </c>
       <c r="K52" s="1">
         <v>39016</v>
@@ -4214,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -4228,14 +4222,14 @@
         <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" t="s">
         <v>279</v>
       </c>
-      <c r="E53" t="s">
-        <v>280</v>
-      </c>
       <c r="F53">
         <v>0</v>
       </c>
@@ -4243,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K53" s="1">
         <v>38890</v>
@@ -4264,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -4275,10 +4269,10 @@
         <v>38879</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -4290,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K54" s="1">
         <v>38890</v>
@@ -4305,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -4322,10 +4316,10 @@
         <v>2004</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -4337,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K55" s="1">
         <v>38764</v>
@@ -4358,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -4369,10 +4363,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4381,13 +4375,13 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K56" s="1">
         <v>38680</v>
@@ -4416,7 +4410,7 @@
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4425,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K57" s="1">
         <v>38617</v>
@@ -4440,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -4454,14 +4448,14 @@
         <v>38316</v>
       </c>
       <c r="C58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D58" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58" t="s">
         <v>302</v>
       </c>
-      <c r="E58" t="s">
-        <v>303</v>
-      </c>
       <c r="F58">
         <v>0</v>
       </c>
@@ -4469,13 +4463,13 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K58" s="1">
         <v>38526</v>
@@ -4484,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -4498,10 +4492,10 @@
         <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4510,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K59" s="1">
         <v>38821</v>
@@ -4525,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -4539,14 +4533,14 @@
         <v>37987</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60" t="s">
         <v>312</v>
       </c>
-      <c r="E60" t="s">
-        <v>313</v>
-      </c>
       <c r="F60">
         <v>0</v>
       </c>
@@ -4554,13 +4548,13 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K60" s="1">
         <v>38295</v>
@@ -4569,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -4583,13 +4577,13 @@
         <v>38265</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4598,13 +4592,13 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K61" s="1">
         <v>38295</v>
@@ -4613,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -4630,10 +4624,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4642,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K62" s="1">
         <v>38086</v>
@@ -4657,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -4674,13 +4668,13 @@
         <v>37609</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4689,13 +4683,13 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K63" s="1">
         <v>37973</v>
@@ -4704,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -4721,14 +4715,14 @@
         <v>37306</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D64" t="s">
+        <v>331</v>
+      </c>
+      <c r="E64" t="s">
         <v>332</v>
       </c>
-      <c r="E64" t="s">
-        <v>333</v>
-      </c>
       <c r="F64">
         <v>0</v>
       </c>
@@ -4736,13 +4730,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K64" s="1">
         <v>38023</v>
@@ -4751,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -4771,25 +4765,25 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
+        <v>336</v>
+      </c>
+      <c r="E65" t="s">
         <v>337</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>338</v>
       </c>
-      <c r="F65" t="s">
-        <v>339</v>
-      </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K65" s="1">
         <v>37942</v>
@@ -4798,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N65" t="b">
         <v>0</v>
@@ -4812,13 +4806,13 @@
         <v>37558</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4827,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K66" s="1">
         <v>37959</v>
@@ -4842,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -4859,13 +4853,13 @@
         <v>37713</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4874,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K67" s="1">
         <v>37882</v>
@@ -4889,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N67" t="b">
         <v>0</v>
@@ -4906,11 +4900,11 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" t="s">
         <v>351</v>
       </c>
-      <c r="E68" t="s">
-        <v>352</v>
-      </c>
       <c r="F68">
         <v>0</v>
       </c>
@@ -4918,13 +4912,13 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K68" s="1">
         <v>37882</v>
@@ -4933,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N68" t="b">
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -4947,11 +4941,11 @@
         <v>77</v>
       </c>
       <c r="D69" t="s">
+        <v>355</v>
+      </c>
+      <c r="E69" t="s">
         <v>356</v>
       </c>
-      <c r="E69" t="s">
-        <v>357</v>
-      </c>
       <c r="F69">
         <v>0</v>
       </c>
@@ -4959,13 +4953,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K69" s="1">
         <v>37700</v>
@@ -4980,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -4994,11 +4988,11 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
+        <v>359</v>
+      </c>
+      <c r="E70" t="s">
         <v>360</v>
       </c>
-      <c r="E70" t="s">
-        <v>361</v>
-      </c>
       <c r="F70">
         <v>0</v>
       </c>
@@ -5006,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K70" s="1">
         <v>37735</v>
@@ -5021,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N70" t="b">
         <v>0</v>
@@ -5032,7 +5026,7 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -5047,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K71" s="1">
         <v>37602</v>
@@ -5068,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -5079,7 +5073,7 @@
         <v>37368</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -5094,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K72" s="1">
         <v>37602</v>
@@ -5109,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N72" t="b">
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -5126,14 +5120,14 @@
         <v>37151</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
+        <v>370</v>
+      </c>
+      <c r="E73" t="s">
         <v>371</v>
       </c>
-      <c r="E73" t="s">
-        <v>372</v>
-      </c>
       <c r="F73">
         <v>0</v>
       </c>
@@ -5141,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I73" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K73" s="1">
         <v>37525</v>
@@ -5156,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N73" t="b">
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -5185,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K74" s="1">
         <v>37441</v>
@@ -5206,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
@@ -5217,7 +5211,7 @@
         <v>37054</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
@@ -5232,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K75" s="1">
         <v>37371</v>
@@ -5247,13 +5241,13 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -5273,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K76" s="1">
         <v>37238</v>
@@ -5311,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I77" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J77" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K77" s="1">
         <v>37203</v>
@@ -5326,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N77" t="b">
         <v>0</v>
@@ -5355,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I78" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J78" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K78" s="1">
         <v>37040</v>
@@ -5370,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N78" t="b">
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -5399,13 +5393,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K79" s="1">
         <v>36909</v>
@@ -5414,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N79" t="b">
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -5431,7 +5425,7 @@
         <v>36803</v>
       </c>
       <c r="C80" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
@@ -5446,13 +5440,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K80" s="1">
         <v>36853</v>
@@ -5461,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
       </c>
       <c r="O80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -5475,7 +5469,7 @@
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -5490,13 +5484,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J81" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K81" s="1">
         <v>36783</v>
@@ -5505,13 +5499,13 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N81" t="b">
         <v>1</v>
       </c>
       <c r="O81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -5522,7 +5516,7 @@
         <v>36567</v>
       </c>
       <c r="C82" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -5537,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K82" s="1">
         <v>36685</v>
@@ -5558,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
@@ -5578,13 +5572,13 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K83" s="1">
         <v>36552</v>
@@ -5593,13 +5587,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N83" t="b">
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
@@ -5625,13 +5619,13 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I84" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K84" s="1">
         <v>36482</v>
@@ -5640,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N84" t="b">
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -5666,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I85" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K85" s="1">
         <v>36322</v>
@@ -5692,7 +5686,7 @@
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -5707,13 +5701,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J86" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K86" s="1">
         <v>35971</v>
@@ -5722,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N86" t="b">
         <v>0</v>
@@ -5745,13 +5739,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I87" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K87" s="1">
         <v>35940</v>
@@ -5760,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N87" t="b">
         <v>0</v>
@@ -5786,13 +5780,13 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I88" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J88" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K88" s="1">
         <v>35958</v>
@@ -5824,13 +5818,13 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I89" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J89" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K89" s="1">
         <v>35874</v>
@@ -5862,13 +5856,13 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K90" s="1">
         <v>35836</v>
@@ -5877,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N90" t="b">
         <v>0</v>
@@ -5903,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I91" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J91" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K91" s="1">
         <v>35704</v>
@@ -5918,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N91" t="b">
         <v>0</v>
@@ -5929,7 +5923,7 @@
         <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
@@ -5944,13 +5938,13 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K92" s="1">
         <v>35542</v>
@@ -5959,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N92" t="b">
         <v>0</v>
@@ -5982,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I93" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K93" s="1">
         <v>35500</v>
@@ -6020,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I94" t="s">
+        <v>424</v>
+      </c>
+      <c r="J94" t="s">
         <v>425</v>
-      </c>
-      <c r="J94" t="s">
-        <v>426</v>
       </c>
       <c r="K94" s="1">
         <v>35500</v>
@@ -6058,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I95" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J95" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K95" s="1">
         <v>35419</v>
@@ -6073,13 +6067,13 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N95" t="b">
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
@@ -6087,7 +6081,7 @@
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -6102,13 +6096,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I96" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J96" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K96" s="1">
         <v>35158</v>
@@ -6117,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N96" t="b">
         <v>0</v>
@@ -6128,7 +6122,7 @@
         <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D97" t="s">
         <v>21</v>
@@ -6143,13 +6137,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J97" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K97" s="1">
         <v>35158</v>
@@ -6158,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N97" t="b">
         <v>0</v>
@@ -6169,7 +6163,7 @@
         <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D98" t="s">
         <v>21</v>
@@ -6184,13 +6178,13 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K98" s="1">
         <v>35131</v>
@@ -6199,13 +6193,13 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N98" t="b">
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6216,7 +6210,7 @@
         <v>34596</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
         <v>21</v>
@@ -6231,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I99" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J99" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K99" s="1">
         <v>35074</v>
@@ -6246,13 +6240,13 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N99" t="b">
         <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
@@ -6272,13 +6266,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K100" s="1">
         <v>35002</v>
@@ -6287,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N100" t="b">
         <v>0</v>
@@ -6313,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I101" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J101" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K101" s="1">
         <v>34850</v>
@@ -6351,13 +6345,13 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I102" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" t="s">
         <v>62</v>
-      </c>
-      <c r="J102" t="s">
-        <v>63</v>
       </c>
       <c r="K102" s="1">
         <v>34669</v>
@@ -6366,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N102" t="b">
         <v>0</v>
@@ -6395,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I103" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J103" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K103" s="1">
         <v>34661</v>
@@ -6410,13 +6404,13 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N103" t="b">
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
@@ -6436,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I104" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J104" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K104" s="1">
         <v>34423</v>
@@ -6451,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N104" t="b">
         <v>0</v>
@@ -6474,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I105" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J105" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K105" s="1">
         <v>34320</v>
@@ -6489,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N105" t="b">
         <v>0</v>
@@ -6515,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I106" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J106" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K106" s="1">
         <v>34320</v>
@@ -6530,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N106" t="b">
         <v>1</v>
@@ -6541,7 +6535,7 @@
         <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D107" t="s">
         <v>21</v>
@@ -6556,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I107" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J107" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K107" s="1">
         <v>34310</v>
@@ -6571,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N107" t="b">
         <v>0</v>
@@ -6582,7 +6576,7 @@
         <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D108" t="s">
         <v>21</v>
@@ -6597,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I108" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J108" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K108" s="1">
         <v>34256</v>
@@ -6612,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N108" t="b">
         <v>0</v>
@@ -6623,7 +6617,7 @@
         <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D109" t="s">
         <v>21</v>
@@ -6638,13 +6632,13 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I109" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J109" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K109" s="1">
         <v>34142</v>
@@ -6653,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N109" t="b">
         <v>0</v>
@@ -6676,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I110" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J110" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K110" s="1">
         <v>34142</v>
@@ -6691,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N110" t="b">
         <v>0</v>
@@ -6702,7 +6696,7 @@
         <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -6717,13 +6711,13 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I111" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J111" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K111" s="1">
         <v>34107</v>
@@ -6732,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N111" t="b">
         <v>0</v>
@@ -6755,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I112" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J112" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K112" s="1">
         <v>34009</v>
@@ -6770,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N112" t="b">
         <v>0</v>
@@ -6793,13 +6787,13 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I113" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J113" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K113" s="1">
         <v>33988</v>
@@ -6808,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N113" t="b">
         <v>0</v>
@@ -6834,13 +6828,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I114" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J114" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K114" s="1">
         <v>33795</v>
@@ -6849,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N114" t="b">
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
@@ -6875,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I115" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J115" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K115" s="1">
         <v>33691</v>
@@ -6913,13 +6907,13 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I116" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J116" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K116" s="1">
         <v>33630</v>
@@ -6928,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N116" t="b">
         <v>0</v>
@@ -6951,13 +6945,13 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I117" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J117" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K117" s="1">
         <v>33630</v>
@@ -6972,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
@@ -6992,13 +6986,13 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I118" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J118" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K118" s="1">
         <v>33574</v>
@@ -7007,13 +7001,13 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N118" t="b">
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
@@ -7021,7 +7015,7 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D119" t="s">
         <v>21</v>
@@ -7036,13 +7030,13 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I119" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J119" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K119" s="1">
         <v>33574</v>
@@ -7051,13 +7045,13 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N119" t="b">
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
@@ -7077,13 +7071,13 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I120" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J120" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K120" s="1">
         <v>33413</v>
@@ -7092,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N120" t="b">
         <v>0</v>
@@ -7115,13 +7109,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I121" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J121" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K121" s="1">
         <v>33413</v>
@@ -7130,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N121" t="b">
         <v>0</v>
@@ -7153,13 +7147,13 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I122" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J122" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K122" s="1">
         <v>33413</v>
@@ -7168,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N122" t="b">
         <v>0</v>
@@ -7191,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I123" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J123" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K123" s="1">
         <v>33220</v>
@@ -7206,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N123" t="b">
         <v>0</v>
@@ -7229,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I124" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J124" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K124" s="1">
         <v>33220</v>
@@ -7244,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N124" t="b">
         <v>0</v>
@@ -7267,13 +7261,13 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I125" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J125" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K125" s="1">
         <v>33220</v>
@@ -7282,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N125" t="b">
         <v>0</v>
@@ -7305,13 +7299,13 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I126" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J126" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K126" s="1">
         <v>33072</v>
@@ -7320,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N126" t="b">
         <v>0</v>
@@ -7343,13 +7337,13 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I127" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J127" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K127" s="1">
         <v>33072</v>
@@ -7358,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N127" t="b">
         <v>0</v>
@@ -7381,13 +7375,13 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I128" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J128" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K128" s="1">
         <v>32857</v>
@@ -7396,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N128" t="b">
         <v>0</v>
@@ -7419,13 +7413,13 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I129" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J129" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K129" s="1">
         <v>32857</v>
@@ -7434,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N129" t="b">
         <v>0</v>
@@ -7457,13 +7451,13 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I130" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J130" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K130" s="1">
         <v>32797</v>
@@ -7472,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
@@ -7483,7 +7477,7 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D131" t="s">
         <v>21</v>
@@ -7498,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I131" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J131" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K131" s="1">
         <v>32797</v>
@@ -7513,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N131" t="b">
         <v>0</v>
@@ -7539,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I132" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J132" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K132" s="1">
         <v>32493</v>
@@ -7554,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N132" t="b">
         <v>0</v>
@@ -7577,13 +7571,13 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I133" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J133" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K133" s="1">
         <v>32454</v>
@@ -7615,13 +7609,13 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I134" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J134" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K134" s="1">
         <v>32454</v>
@@ -7653,13 +7647,13 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I135" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J135" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K135" s="1">
         <v>32117</v>
@@ -7668,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N135" t="b">
         <v>0</v>
@@ -7679,7 +7673,7 @@
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D136" t="s">
         <v>21</v>
@@ -7694,13 +7688,13 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I136" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J136" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K136" s="1">
         <v>32127</v>
@@ -7709,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N136" t="b">
         <v>1</v>
@@ -7732,13 +7726,13 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I137" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J137" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K137" s="1">
         <v>31831</v>
@@ -7770,13 +7764,13 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I138" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J138" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K138" s="1">
         <v>31761</v>
@@ -7785,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N138" t="b">
         <v>0</v>
@@ -7796,7 +7790,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D139" t="s">
         <v>21</v>
@@ -7811,13 +7805,13 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I139" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J139" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K139" s="1">
         <v>31467</v>
@@ -7826,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N139" t="b">
         <v>0</v>
@@ -7837,7 +7831,7 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D140" t="s">
         <v>21</v>
@@ -7852,13 +7846,13 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I140" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J140" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K140" s="1">
         <v>31180</v>
@@ -7867,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N140" t="b">
         <v>0</v>
@@ -7890,13 +7884,13 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I141" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J141" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K141" s="1">
         <v>31180</v>
@@ -7905,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="N141" t="b">
         <v>0</v>
@@ -7916,7 +7910,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D142" t="s">
         <v>21</v>
@@ -7931,13 +7925,13 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I142" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J142" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K142" s="1">
         <v>31203</v>
@@ -7946,13 +7940,13 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N142" t="b">
         <v>0</v>
       </c>
       <c r="O142" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
@@ -7972,13 +7966,13 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I143" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J143" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K143" s="1">
         <v>30978</v>
@@ -7987,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N143" t="b">
         <v>0</v>
@@ -8013,13 +8007,13 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I144" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J144" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K144" s="1">
         <v>30935</v>
@@ -8028,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N144" t="b">
         <v>0</v>
@@ -8039,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
         <v>21</v>
@@ -8054,13 +8048,13 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I145" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J145" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K145" s="1">
         <v>30824</v>
@@ -8092,25 +8086,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" t="s">
         <v>232</v>
       </c>
-      <c r="H1" t="s">
-        <v>233</v>
-      </c>
       <c r="K1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -8121,28 +8115,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K2" t="s">
+        <v>540</v>
+      </c>
+      <c r="M2" t="s">
         <v>541</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>542</v>
-      </c>
-      <c r="M2" t="s">
-        <v>543</v>
-      </c>
-      <c r="N2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -8150,7 +8144,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -8165,35 +8159,35 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1483" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDAD0846-4159-4DD8-82CF-B47B87C49E27}"/>
+  <xr:revisionPtr revIDLastSave="1486" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{640D202F-EC85-4E1D-BB32-B565C8894B1A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -2008,25 +2008,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>144</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>143</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>142</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>141</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>139</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>138</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>137</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>136</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>135</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>134</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>132</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>131</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>129</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>127</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>126</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>125</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>124</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>123</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>122</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>120</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>119</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>118</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>117</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>116</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>115</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>114</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>113</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>112</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>111</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>110</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>109</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>108</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>107</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>106</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>105</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>104</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>103</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>102</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>101</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>99</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>98</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>97</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>96</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>93</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>92</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>91</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>90</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>89</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>88</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>87</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>86</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>85</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>84</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>83</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>82</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>81</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>80</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>79</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>78</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>77</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>76</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>75</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>74</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>70</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>69</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>68</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>67</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>65</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>64</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>63</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>62</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>61</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>60</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>59</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>58</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>56</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>55</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>54</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>53</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>52</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>51</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>50</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>49</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>48</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>47</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>46</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>45</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>44</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>43</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>42</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>41</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>40</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>39</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>38</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>37</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>36</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>35</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>34</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>33</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>32</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>31</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>30</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>29</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>28</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>27</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>26</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>25</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>19</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>18</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>17</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>16</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -8082,9 +8082,9 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -8147,22 +8147,22 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -8170,22 +8170,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>387</v>
       </c>

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1486" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{640D202F-EC85-4E1D-BB32-B565C8894B1A}"/>
+  <xr:revisionPtr revIDLastSave="1524" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEAB86F-1843-49A5-8F07-AF9A8FBF02E8}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="551">
   <si>
     <t>num</t>
   </si>
@@ -1376,9 +1376,6 @@
     <t>toxicomanie</t>
   </si>
   <si>
-    <t>"groupe de travail auto saisie depuis avril 1993"</t>
-  </si>
-  <si>
     <t>Avis sur l'évolution des pratiques d'assistance médicale à la procréation. Rapport.</t>
   </si>
   <si>
@@ -1683,6 +1680,18 @@
   </si>
   <si>
     <t>titre</t>
+  </si>
+  <si>
+    <t>et encore tableau sans nombre</t>
+  </si>
+  <si>
+    <t>tableau des législations non chiffrés</t>
+  </si>
+  <si>
+    <t>tableaux et graphiques</t>
+  </si>
+  <si>
+    <t>"groupe de travail auto saisie depuis avril 1993" et que des tableaux non chiffré</t>
   </si>
 </sst>
 </file>
@@ -1737,10 +1746,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2006,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2031,7 @@
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2052,10 +2057,10 @@
         <v>76</v>
       </c>
       <c r="I1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" t="s">
         <v>546</v>
-      </c>
-      <c r="J1" t="s">
-        <v>547</v>
       </c>
       <c r="K1" t="s">
         <v>107</v>
@@ -2070,10 +2075,13 @@
         <v>43</v>
       </c>
       <c r="O1" t="s">
+        <v>549</v>
+      </c>
+      <c r="P1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>144</v>
       </c>
@@ -2117,11 +2125,14 @@
       <c r="N2" t="b">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>143</v>
       </c>
@@ -2162,8 +2173,14 @@
       <c r="N3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>142</v>
       </c>
@@ -2206,8 +2223,11 @@
       <c r="N4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>141</v>
       </c>
@@ -2250,8 +2270,11 @@
       <c r="N5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
@@ -2288,8 +2311,11 @@
       <c r="N6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>139</v>
       </c>
@@ -2332,8 +2358,11 @@
       <c r="N7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>138</v>
       </c>
@@ -2370,8 +2399,11 @@
       <c r="N8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>137</v>
       </c>
@@ -2408,8 +2440,11 @@
       <c r="N9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>136</v>
       </c>
@@ -2446,8 +2481,11 @@
       <c r="N10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>135</v>
       </c>
@@ -2487,11 +2525,14 @@
       <c r="N11" t="b">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>134</v>
       </c>
@@ -2531,8 +2572,11 @@
       <c r="N12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2569,8 +2613,11 @@
       <c r="N13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>132</v>
       </c>
@@ -2610,11 +2657,14 @@
       <c r="N14" t="b">
         <v>0</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>131</v>
       </c>
@@ -2657,8 +2707,11 @@
       <c r="N15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130</v>
       </c>
@@ -2698,11 +2751,14 @@
       <c r="N16" t="b">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>129</v>
       </c>
@@ -2742,8 +2798,11 @@
       <c r="N17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
@@ -2783,8 +2842,11 @@
       <c r="N18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>127</v>
       </c>
@@ -2821,8 +2883,11 @@
       <c r="N19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>126</v>
       </c>
@@ -2859,8 +2924,11 @@
       <c r="N20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>125</v>
       </c>
@@ -2897,8 +2965,11 @@
       <c r="N21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>124</v>
       </c>
@@ -2935,8 +3006,11 @@
       <c r="N22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>123</v>
       </c>
@@ -2976,11 +3050,14 @@
       <c r="N23" t="b">
         <v>0</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>122</v>
       </c>
@@ -3020,8 +3097,11 @@
       <c r="N24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121</v>
       </c>
@@ -3064,8 +3144,14 @@
       <c r="N25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>120</v>
       </c>
@@ -3105,8 +3191,11 @@
       <c r="N26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>119</v>
       </c>
@@ -3146,11 +3235,14 @@
       <c r="N27" t="b">
         <v>0</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>118</v>
       </c>
@@ -3190,11 +3282,14 @@
       <c r="N28" t="b">
         <v>0</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>117</v>
       </c>
@@ -3234,8 +3329,11 @@
       <c r="N29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>116</v>
       </c>
@@ -3272,8 +3370,11 @@
       <c r="N30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>115</v>
       </c>
@@ -3310,13 +3411,16 @@
       <c r="N31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D32" t="s">
         <v>172</v>
@@ -3351,11 +3455,14 @@
       <c r="N32" t="b">
         <v>0</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>113</v>
       </c>
@@ -3392,8 +3499,11 @@
       <c r="N33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>112</v>
       </c>
@@ -3433,8 +3543,11 @@
       <c r="N34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>111</v>
       </c>
@@ -3474,11 +3587,14 @@
       <c r="N35" t="b">
         <v>0</v>
       </c>
-      <c r="O35" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>110</v>
       </c>
@@ -3518,8 +3634,11 @@
       <c r="N36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>109</v>
       </c>
@@ -3559,8 +3678,11 @@
       <c r="N37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>108</v>
       </c>
@@ -3600,11 +3722,14 @@
       <c r="N38" t="b">
         <v>0</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>107</v>
       </c>
@@ -3641,13 +3766,16 @@
       <c r="N39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D40" t="s">
         <v>206</v>
@@ -3682,11 +3810,14 @@
       <c r="N40" t="b">
         <v>0</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>105</v>
       </c>
@@ -3726,8 +3857,11 @@
       <c r="N41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>104</v>
       </c>
@@ -3767,11 +3901,14 @@
       <c r="N42" t="b">
         <v>0</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>103</v>
       </c>
@@ -3814,11 +3951,14 @@
       <c r="N43" t="b">
         <v>0</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>102</v>
       </c>
@@ -3861,11 +4001,14 @@
       <c r="N44" t="b">
         <v>0</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>101</v>
       </c>
@@ -3902,8 +4045,11 @@
       <c r="N45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100</v>
       </c>
@@ -3946,16 +4092,19 @@
       <c r="N46" t="b">
         <v>0</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D47" t="s">
         <v>250</v>
@@ -3990,11 +4139,14 @@
       <c r="N47" t="b">
         <v>0</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>98</v>
       </c>
@@ -4034,8 +4186,11 @@
       <c r="N48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>97</v>
       </c>
@@ -4078,11 +4233,14 @@
       <c r="N49" t="b">
         <v>0</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>96</v>
       </c>
@@ -4122,8 +4280,11 @@
       <c r="N50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4166,11 +4327,14 @@
       <c r="N51" t="b">
         <v>0</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4213,11 +4377,14 @@
       <c r="N52" t="b">
         <v>0</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>93</v>
       </c>
@@ -4257,11 +4424,14 @@
       <c r="N53" t="b">
         <v>0</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>92</v>
       </c>
@@ -4304,11 +4474,14 @@
       <c r="N54" t="b">
         <v>0</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>91</v>
       </c>
@@ -4351,11 +4524,14 @@
       <c r="N55" t="b">
         <v>0</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>90</v>
       </c>
@@ -4395,8 +4571,11 @@
       <c r="N56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>89</v>
       </c>
@@ -4439,8 +4618,11 @@
       <c r="N57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>88</v>
       </c>
@@ -4483,11 +4665,14 @@
       <c r="N58" t="b">
         <v>0</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>87</v>
       </c>
@@ -4524,8 +4709,11 @@
       <c r="N59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>86</v>
       </c>
@@ -4568,8 +4756,11 @@
       <c r="N60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>85</v>
       </c>
@@ -4612,8 +4803,11 @@
       <c r="N61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>84</v>
       </c>
@@ -4656,11 +4850,14 @@
       <c r="N62" t="b">
         <v>0</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>83</v>
       </c>
@@ -4703,11 +4900,14 @@
       <c r="N63" t="b">
         <v>0</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>82</v>
       </c>
@@ -4750,11 +4950,14 @@
       <c r="N64" t="b">
         <v>0</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>81</v>
       </c>
@@ -4797,8 +5000,11 @@
       <c r="N65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>80</v>
       </c>
@@ -4841,11 +5047,14 @@
       <c r="N66" t="b">
         <v>0</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>79</v>
       </c>
@@ -4888,8 +5097,11 @@
       <c r="N67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>78</v>
       </c>
@@ -4932,11 +5144,14 @@
       <c r="N68" t="b">
         <v>0</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>77</v>
       </c>
@@ -4973,11 +5188,14 @@
       <c r="N69" t="b">
         <v>0</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>76</v>
       </c>
@@ -5020,8 +5238,11 @@
       <c r="N70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>75</v>
       </c>
@@ -5061,11 +5282,14 @@
       <c r="N71" t="b">
         <v>0</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>74</v>
       </c>
@@ -5108,11 +5332,14 @@
       <c r="N72" t="b">
         <v>0</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5155,11 +5382,14 @@
       <c r="N73" t="b">
         <v>0</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5199,11 +5429,14 @@
       <c r="N74" t="b">
         <v>0</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -5246,11 +5479,14 @@
       <c r="N75" t="b">
         <v>0</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>70</v>
       </c>
@@ -5287,8 +5523,11 @@
       <c r="N76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>69</v>
       </c>
@@ -5325,8 +5564,11 @@
       <c r="N77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>68</v>
       </c>
@@ -5369,11 +5611,14 @@
       <c r="N78" t="b">
         <v>0</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>67</v>
       </c>
@@ -5413,11 +5658,14 @@
       <c r="N79" t="b">
         <v>1</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
@@ -5425,7 +5673,7 @@
         <v>36803</v>
       </c>
       <c r="C80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
@@ -5460,11 +5708,14 @@
       <c r="N80" t="b">
         <v>1</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>65</v>
       </c>
@@ -5504,11 +5755,14 @@
       <c r="N81" t="b">
         <v>1</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>64</v>
       </c>
@@ -5516,7 +5770,7 @@
         <v>36567</v>
       </c>
       <c r="C82" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -5551,11 +5805,14 @@
       <c r="N82" t="b">
         <v>0</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>63</v>
       </c>
@@ -5592,11 +5849,14 @@
       <c r="N83" t="b">
         <v>0</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>62</v>
       </c>
@@ -5639,11 +5899,14 @@
       <c r="N84" t="b">
         <v>0</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>61</v>
       </c>
@@ -5680,8 +5943,11 @@
       <c r="N85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>60</v>
       </c>
@@ -5721,8 +5987,11 @@
       <c r="N86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>59</v>
       </c>
@@ -5759,8 +6028,11 @@
       <c r="N87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>58</v>
       </c>
@@ -5800,8 +6072,11 @@
       <c r="N88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -5838,8 +6113,11 @@
       <c r="N89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>56</v>
       </c>
@@ -5876,8 +6154,11 @@
       <c r="N90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>55</v>
       </c>
@@ -5917,8 +6198,11 @@
       <c r="N91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>54</v>
       </c>
@@ -5958,8 +6242,11 @@
       <c r="N92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>53</v>
       </c>
@@ -5996,8 +6283,11 @@
       <c r="N93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>52</v>
       </c>
@@ -6034,8 +6324,11 @@
       <c r="N94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>51</v>
       </c>
@@ -6072,11 +6365,14 @@
       <c r="N95" t="b">
         <v>0</v>
       </c>
-      <c r="O95" t="s">
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>50</v>
       </c>
@@ -6116,8 +6412,11 @@
       <c r="N96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>49</v>
       </c>
@@ -6157,8 +6456,11 @@
       <c r="N97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>48</v>
       </c>
@@ -6198,11 +6500,14 @@
       <c r="N98" t="b">
         <v>0</v>
       </c>
-      <c r="O98" t="s">
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>47</v>
       </c>
@@ -6245,11 +6550,14 @@
       <c r="N99" t="b">
         <v>0</v>
       </c>
-      <c r="O99" t="s">
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>46</v>
       </c>
@@ -6286,8 +6594,11 @@
       <c r="N100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>45</v>
       </c>
@@ -6327,8 +6638,11 @@
       <c r="N101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>44</v>
       </c>
@@ -6365,8 +6679,11 @@
       <c r="N102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>43</v>
       </c>
@@ -6409,11 +6726,14 @@
       <c r="N103" t="b">
         <v>0</v>
       </c>
-      <c r="O103" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>42</v>
       </c>
@@ -6433,10 +6753,10 @@
         <v>85</v>
       </c>
       <c r="I104" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K104" s="1">
         <v>34423</v>
@@ -6450,8 +6770,11 @@
       <c r="N104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>41</v>
       </c>
@@ -6471,10 +6794,10 @@
         <v>85</v>
       </c>
       <c r="I105" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J105" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K105" s="1">
         <v>34320</v>
@@ -6488,8 +6811,11 @@
       <c r="N105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>40</v>
       </c>
@@ -6512,10 +6838,10 @@
         <v>85</v>
       </c>
       <c r="I106" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J106" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K106" s="1">
         <v>34320</v>
@@ -6529,13 +6855,16 @@
       <c r="N106" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D107" t="s">
         <v>21</v>
@@ -6553,10 +6882,10 @@
         <v>85</v>
       </c>
       <c r="I107" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J107" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K107" s="1">
         <v>34310</v>
@@ -6570,13 +6899,16 @@
       <c r="N107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D108" t="s">
         <v>21</v>
@@ -6594,10 +6926,10 @@
         <v>85</v>
       </c>
       <c r="I108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J108" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K108" s="1">
         <v>34256</v>
@@ -6611,8 +6943,11 @@
       <c r="N108" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>37</v>
       </c>
@@ -6635,10 +6970,10 @@
         <v>85</v>
       </c>
       <c r="I109" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J109" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K109" s="1">
         <v>34142</v>
@@ -6652,8 +6987,11 @@
       <c r="N109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>36</v>
       </c>
@@ -6673,10 +7011,10 @@
         <v>85</v>
       </c>
       <c r="I110" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J110" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K110" s="1">
         <v>34142</v>
@@ -6690,8 +7028,11 @@
       <c r="N110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>35</v>
       </c>
@@ -6714,10 +7055,10 @@
         <v>85</v>
       </c>
       <c r="I111" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K111" s="1">
         <v>34107</v>
@@ -6731,8 +7072,11 @@
       <c r="N111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>34</v>
       </c>
@@ -6752,10 +7096,10 @@
         <v>85</v>
       </c>
       <c r="I112" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J112" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K112" s="1">
         <v>34009</v>
@@ -6769,8 +7113,11 @@
       <c r="N112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>33</v>
       </c>
@@ -6790,10 +7137,10 @@
         <v>85</v>
       </c>
       <c r="I113" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J113" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K113" s="1">
         <v>33988</v>
@@ -6807,8 +7154,11 @@
       <c r="N113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>32</v>
       </c>
@@ -6831,10 +7181,10 @@
         <v>85</v>
       </c>
       <c r="I114" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J114" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K114" s="1">
         <v>33795</v>
@@ -6848,11 +7198,14 @@
       <c r="N114" t="b">
         <v>0</v>
       </c>
-      <c r="O114" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>31</v>
       </c>
@@ -6872,10 +7225,10 @@
         <v>85</v>
       </c>
       <c r="I115" t="s">
+        <v>470</v>
+      </c>
+      <c r="J115" t="s">
         <v>471</v>
-      </c>
-      <c r="J115" t="s">
-        <v>472</v>
       </c>
       <c r="K115" s="1">
         <v>33691</v>
@@ -6889,8 +7242,11 @@
       <c r="N115" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>30</v>
       </c>
@@ -6910,10 +7266,10 @@
         <v>85</v>
       </c>
       <c r="I116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J116" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K116" s="1">
         <v>33630</v>
@@ -6927,8 +7283,11 @@
       <c r="N116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>29</v>
       </c>
@@ -6948,10 +7307,10 @@
         <v>85</v>
       </c>
       <c r="I117" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J117" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K117" s="1">
         <v>33630</v>
@@ -6965,11 +7324,14 @@
       <c r="N117" t="b">
         <v>0</v>
       </c>
-      <c r="O117" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>28</v>
       </c>
@@ -6989,10 +7351,10 @@
         <v>85</v>
       </c>
       <c r="I118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K118" s="1">
         <v>33574</v>
@@ -7006,16 +7368,19 @@
       <c r="N118" t="b">
         <v>0</v>
       </c>
-      <c r="O118" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D119" t="s">
         <v>21</v>
@@ -7033,10 +7398,10 @@
         <v>85</v>
       </c>
       <c r="I119" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J119" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K119" s="1">
         <v>33574</v>
@@ -7050,11 +7415,14 @@
       <c r="N119" t="b">
         <v>0</v>
       </c>
-      <c r="O119" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>26</v>
       </c>
@@ -7074,10 +7442,10 @@
         <v>85</v>
       </c>
       <c r="I120" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J120" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K120" s="1">
         <v>33413</v>
@@ -7091,8 +7459,11 @@
       <c r="N120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>25</v>
       </c>
@@ -7112,10 +7483,10 @@
         <v>85</v>
       </c>
       <c r="I121" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J121" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K121" s="1">
         <v>33413</v>
@@ -7129,8 +7500,11 @@
       <c r="N121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24</v>
       </c>
@@ -7150,10 +7524,10 @@
         <v>85</v>
       </c>
       <c r="I122" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J122" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K122" s="1">
         <v>33413</v>
@@ -7167,8 +7541,11 @@
       <c r="N122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23</v>
       </c>
@@ -7188,10 +7565,10 @@
         <v>85</v>
       </c>
       <c r="I123" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J123" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K123" s="1">
         <v>33220</v>
@@ -7205,8 +7582,11 @@
       <c r="N123" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -7226,10 +7606,10 @@
         <v>85</v>
       </c>
       <c r="I124" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J124" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K124" s="1">
         <v>33220</v>
@@ -7243,8 +7623,11 @@
       <c r="N124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21</v>
       </c>
@@ -7264,10 +7647,10 @@
         <v>85</v>
       </c>
       <c r="I125" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J125" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K125" s="1">
         <v>33220</v>
@@ -7281,8 +7664,11 @@
       <c r="N125" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -7302,10 +7688,10 @@
         <v>85</v>
       </c>
       <c r="I126" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J126" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K126" s="1">
         <v>33072</v>
@@ -7319,8 +7705,11 @@
       <c r="N126" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>19</v>
       </c>
@@ -7340,10 +7729,10 @@
         <v>85</v>
       </c>
       <c r="I127" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J127" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K127" s="1">
         <v>33072</v>
@@ -7357,8 +7746,11 @@
       <c r="N127" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>18</v>
       </c>
@@ -7378,10 +7770,10 @@
         <v>85</v>
       </c>
       <c r="I128" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J128" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K128" s="1">
         <v>32857</v>
@@ -7395,8 +7787,11 @@
       <c r="N128" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>17</v>
       </c>
@@ -7416,10 +7811,10 @@
         <v>85</v>
       </c>
       <c r="I129" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J129" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K129" s="1">
         <v>32857</v>
@@ -7433,8 +7828,11 @@
       <c r="N129" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>16</v>
       </c>
@@ -7454,10 +7852,10 @@
         <v>85</v>
       </c>
       <c r="I130" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K130" s="1">
         <v>32797</v>
@@ -7471,13 +7869,16 @@
       <c r="N130" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D131" t="s">
         <v>21</v>
@@ -7495,10 +7896,10 @@
         <v>85</v>
       </c>
       <c r="I131" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J131" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K131" s="1">
         <v>32797</v>
@@ -7512,8 +7913,11 @@
       <c r="N131" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -7536,10 +7940,10 @@
         <v>85</v>
       </c>
       <c r="I132" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J132" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K132" s="1">
         <v>32493</v>
@@ -7553,8 +7957,11 @@
       <c r="N132" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13</v>
       </c>
@@ -7574,10 +7981,10 @@
         <v>85</v>
       </c>
       <c r="I133" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J133" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K133" s="1">
         <v>32454</v>
@@ -7591,8 +7998,11 @@
       <c r="N133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12</v>
       </c>
@@ -7612,10 +8022,10 @@
         <v>85</v>
       </c>
       <c r="I134" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J134" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K134" s="1">
         <v>32454</v>
@@ -7629,8 +8039,11 @@
       <c r="N134" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11</v>
       </c>
@@ -7650,10 +8063,10 @@
         <v>85</v>
       </c>
       <c r="I135" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J135" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K135" s="1">
         <v>32117</v>
@@ -7667,8 +8080,11 @@
       <c r="N135" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10</v>
       </c>
@@ -7691,10 +8107,10 @@
         <v>85</v>
       </c>
       <c r="I136" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J136" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K136" s="1">
         <v>32127</v>
@@ -7708,8 +8124,11 @@
       <c r="N136" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9</v>
       </c>
@@ -7729,10 +8148,10 @@
         <v>85</v>
       </c>
       <c r="I137" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J137" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K137" s="1">
         <v>31831</v>
@@ -7746,8 +8165,11 @@
       <c r="N137" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -7767,10 +8189,10 @@
         <v>85</v>
       </c>
       <c r="I138" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K138" s="1">
         <v>31761</v>
@@ -7784,8 +8206,11 @@
       <c r="N138" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -7808,10 +8233,10 @@
         <v>85</v>
       </c>
       <c r="I139" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J139" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K139" s="1">
         <v>31467</v>
@@ -7825,13 +8250,16 @@
       <c r="N139" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D140" t="s">
         <v>21</v>
@@ -7849,10 +8277,10 @@
         <v>85</v>
       </c>
       <c r="I140" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J140" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K140" s="1">
         <v>31180</v>
@@ -7866,8 +8294,11 @@
       <c r="N140" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -7887,10 +8318,10 @@
         <v>85</v>
       </c>
       <c r="I141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K141" s="1">
         <v>31180</v>
@@ -7904,8 +8335,11 @@
       <c r="N141" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -7928,10 +8362,10 @@
         <v>85</v>
       </c>
       <c r="I142" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J142" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K142" s="1">
         <v>31203</v>
@@ -7945,11 +8379,14 @@
       <c r="N142" t="b">
         <v>0</v>
       </c>
-      <c r="O142" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -7969,10 +8406,10 @@
         <v>85</v>
       </c>
       <c r="I143" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J143" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K143" s="1">
         <v>30978</v>
@@ -7986,8 +8423,11 @@
       <c r="N143" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -8010,10 +8450,10 @@
         <v>85</v>
       </c>
       <c r="I144" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J144" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K144" s="1">
         <v>30935</v>
@@ -8027,8 +8467,11 @@
       <c r="N144" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -8051,10 +8494,10 @@
         <v>85</v>
       </c>
       <c r="I145" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J145" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K145" s="1">
         <v>30824</v>
@@ -8067,6 +8510,15 @@
       </c>
       <c r="N145" t="b">
         <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <f>SUM(O2:O145)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8127,16 +8579,16 @@
         <v>285</v>
       </c>
       <c r="J2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K2" t="s">
         <v>539</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>540</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>541</v>
-      </c>
-      <c r="N2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1524" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEAB86F-1843-49A5-8F07-AF9A8FBF02E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -2013,25 +2013,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O103" sqref="O103"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30.453125" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>144</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>143</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>142</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>141</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>140</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>139</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>138</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>137</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>136</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>135</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>134</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>132</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>131</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>130</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>129</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>128</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>127</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>126</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>125</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>124</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>123</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>122</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>121</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>120</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>119</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>118</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>117</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>116</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>115</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>114</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>113</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>112</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>111</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>110</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>109</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>108</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>107</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>106</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>105</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>104</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>103</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>102</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>101</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>100</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>99</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>98</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>97</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>96</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>93</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>92</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>91</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>90</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>89</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>88</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>87</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>86</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>85</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>84</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>83</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>82</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>81</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>80</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>79</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>78</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>77</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>76</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>75</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>74</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>71</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>70</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>69</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>68</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>67</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>66</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>65</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>64</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>63</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>62</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>61</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>60</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>59</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>58</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>57</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>56</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>55</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>54</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>53</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>52</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>51</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>50</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>49</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>48</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>47</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>46</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>45</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>44</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>43</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>42</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>41</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>40</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>39</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>38</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>37</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>36</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>35</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>34</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>33</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>32</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>31</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>30</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>29</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>28</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>27</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>26</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>25</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>24</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>23</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>22</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>21</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>20</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>19</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>18</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>17</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>16</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>15</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>14</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>13</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>12</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>11</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>10</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>9</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>8</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>7</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>6</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>5</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>4</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>3</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O146">
         <f>SUM(O2:O145)</f>
         <v>22</v>
@@ -8534,9 +8534,9 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -8599,22 +8599,22 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -8622,22 +8622,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>387</v>
       </c>

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1524" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEAB86F-1843-49A5-8F07-AF9A8FBF02E8}"/>
+  <xr:revisionPtr revIDLastSave="1528" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22336494-608F-47B7-A746-DE4A29F6D280}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>vote pleniere = celle du CCNE</t>
   </si>
   <si>
-    <t>Alexandra Benachi,Laurent Chambaud, Séverine Laboue</t>
-  </si>
-  <si>
     <t>Emmanuel Didier,Christine Froidevaux,Jérôme Perrin</t>
   </si>
   <si>
@@ -1106,9 +1103,6 @@
     <t>Collection matériel biologique</t>
   </si>
   <si>
-    <t>Hélène Gaumont-Prat,Nicole Questiaux,G. Orth</t>
-  </si>
-  <si>
     <t>N. Baumann,Anne Combon-Thompsen,Monique Canto-Sperber, B. Kriegel,Martine Loizeau,Sadek Béloucif, G.Breart</t>
   </si>
   <si>
@@ -1692,6 +1686,12 @@
   </si>
   <si>
     <t>"groupe de travail auto saisie depuis avril 1993" et que des tableaux non chiffré</t>
+  </si>
+  <si>
+    <t>Alexandra Benachi,Laurent Chambaud,Séverine Laboue</t>
+  </si>
+  <si>
+    <t>Hélène Gaumont-Prat,Nicole Questiaux,Gérard Orth</t>
   </si>
 </sst>
 </file>
@@ -2013,25 +2013,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2051,19 +2051,19 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -2072,16 +2072,16 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>144</v>
       </c>
@@ -2092,10 +2092,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>549</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>143</v>
       </c>
@@ -2140,19 +2140,19 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>142</v>
       </c>
@@ -2191,10 +2191,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>141</v>
       </c>
@@ -2238,19 +2238,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -2291,13 +2291,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1">
         <v>44854</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>139</v>
       </c>
@@ -2326,25 +2326,25 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="1">
         <v>44742</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -2362,15 +2362,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1">
         <v>44336</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>137</v>
       </c>
       <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -2420,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
         <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
       </c>
       <c r="K9" s="1">
         <v>44336</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -2444,30 +2444,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>136</v>
       </c>
       <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
         <v>65</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
       </c>
       <c r="K10" s="1">
         <v>44301</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>135</v>
       </c>
@@ -2493,25 +2493,25 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s">
-        <v>71</v>
       </c>
       <c r="K11" s="1">
         <v>44159</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>134</v>
       </c>
@@ -2540,25 +2540,25 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12" s="1">
         <v>43853</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -2576,16 +2576,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>133</v>
       </c>
       <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -2593,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1">
         <v>43727</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>132</v>
       </c>
@@ -2625,25 +2625,25 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
         <v>88</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
         <v>89</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" t="s">
-        <v>86</v>
       </c>
       <c r="K14" s="1">
         <v>43727</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -2661,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>131</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="1">
         <v>43643</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130</v>
       </c>
@@ -2719,11 +2719,11 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="1">
         <v>43645</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>129</v>
       </c>
@@ -2766,10 +2766,10 @@
         <v>43252</v>
       </c>
       <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
         <v>99</v>
-      </c>
-      <c r="J17" t="s">
-        <v>100</v>
       </c>
       <c r="K17" s="1">
         <v>43361</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
@@ -2810,11 +2810,11 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
         <v>109</v>
       </c>
-      <c r="E18" t="s">
-        <v>110</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -2822,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" s="1">
         <v>43146</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2846,15 +2846,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2863,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
         <v>111</v>
-      </c>
-      <c r="J19" t="s">
-        <v>112</v>
       </c>
       <c r="K19" s="1">
         <v>43024</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -2887,15 +2887,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2904,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K20" s="1">
         <v>42901</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>125</v>
       </c>
       <c r="D21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" t="s">
         <v>123</v>
       </c>
-      <c r="E21" t="s">
-        <v>124</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -2945,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21" s="1">
         <v>42893</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2969,16 +2969,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>124</v>
       </c>
       <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
         <v>127</v>
       </c>
-      <c r="E22" t="s">
-        <v>128</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -2986,13 +2986,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K22" s="1">
         <v>42542</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>123</v>
       </c>
@@ -3018,11 +3018,11 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
         <v>131</v>
       </c>
-      <c r="E23" t="s">
-        <v>132</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -3030,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" s="1">
         <v>42091</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>122</v>
       </c>
@@ -3065,11 +3065,11 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
         <v>135</v>
       </c>
-      <c r="E24" t="s">
-        <v>136</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K24" s="2">
         <v>41671</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -3101,21 +3101,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
         <v>141</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3124,13 +3124,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K25" s="1">
         <v>41455</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3148,22 +3148,22 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
         <v>146</v>
       </c>
-      <c r="E26" t="s">
-        <v>147</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -3171,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K26" s="1">
         <v>41389</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>119</v>
       </c>
@@ -3203,10 +3203,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3215,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27" s="1">
         <v>41326</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3239,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>118</v>
       </c>
@@ -3250,11 +3250,11 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
         <v>156</v>
       </c>
-      <c r="E28" t="s">
-        <v>157</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
@@ -3262,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K28" s="1">
         <v>41179</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>117</v>
       </c>
@@ -3297,11 +3297,11 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" t="s">
         <v>160</v>
       </c>
-      <c r="E29" t="s">
-        <v>161</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
@@ -3309,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" t="s">
         <v>158</v>
-      </c>
-      <c r="J29" t="s">
-        <v>159</v>
       </c>
       <c r="K29" s="1">
         <v>40962</v>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>116</v>
       </c>
       <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
         <v>164</v>
       </c>
-      <c r="E30" t="s">
-        <v>165</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" s="1">
         <v>40962</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3374,16 +3374,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>115</v>
       </c>
       <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
         <v>168</v>
       </c>
-      <c r="E31" t="s">
-        <v>169</v>
-      </c>
       <c r="F31">
         <v>0</v>
       </c>
@@ -3391,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K31" s="1">
         <v>40640</v>
@@ -3415,19 +3415,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" t="s">
         <v>172</v>
       </c>
-      <c r="E32" t="s">
-        <v>173</v>
-      </c>
       <c r="F32">
         <v>0</v>
       </c>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K32" s="1">
         <v>40668</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -3459,19 +3459,19 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>113</v>
       </c>
       <c r="D33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" t="s">
         <v>176</v>
       </c>
-      <c r="E33" t="s">
-        <v>177</v>
-      </c>
       <c r="F33">
         <v>0</v>
       </c>
@@ -3479,13 +3479,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K33" s="1">
         <v>40584</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>112</v>
       </c>
@@ -3511,11 +3511,11 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" t="s">
         <v>181</v>
       </c>
-      <c r="E34" t="s">
-        <v>182</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
@@ -3523,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K34" s="1">
         <v>40472</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -3547,15 +3547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -3567,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K35" s="1">
         <v>40185</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3591,21 +3591,21 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3614,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K36" s="1">
         <v>40269</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>109</v>
       </c>
@@ -3646,11 +3646,11 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" t="s">
         <v>193</v>
       </c>
-      <c r="E37" t="s">
-        <v>194</v>
-      </c>
       <c r="F37">
         <v>0</v>
       </c>
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K37" s="1">
         <v>40213</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -3682,19 +3682,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" t="s">
         <v>197</v>
       </c>
-      <c r="E38" t="s">
-        <v>198</v>
-      </c>
       <c r="F38">
         <v>0</v>
       </c>
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K38" s="1">
         <v>40129</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>107</v>
       </c>
       <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" t="s">
         <v>202</v>
       </c>
-      <c r="E39" t="s">
-        <v>203</v>
-      </c>
       <c r="F39">
         <v>0</v>
       </c>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K39" s="1">
         <v>40101</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" t="s">
         <v>206</v>
       </c>
-      <c r="E40" t="s">
-        <v>207</v>
-      </c>
       <c r="F40">
         <v>0</v>
       </c>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K40" s="1">
         <v>39849</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>105</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -3837,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K41" s="1">
         <v>39730</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>104</v>
       </c>
@@ -3869,10 +3869,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K42" s="1">
         <v>39597</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -3905,10 +3905,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>103</v>
       </c>
@@ -3916,14 +3916,14 @@
         <v>39127</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
         <v>217</v>
       </c>
-      <c r="E43" t="s">
-        <v>218</v>
-      </c>
       <c r="F43">
         <v>0</v>
       </c>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K43" s="1">
         <v>39422</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>102</v>
       </c>
@@ -3966,14 +3966,14 @@
         <v>38543</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" t="s">
         <v>223</v>
       </c>
-      <c r="E44" t="s">
-        <v>224</v>
-      </c>
       <c r="F44">
         <v>0</v>
       </c>
@@ -3981,13 +3981,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" t="s">
         <v>221</v>
-      </c>
-      <c r="J44" t="s">
-        <v>222</v>
       </c>
       <c r="K44" s="1">
         <v>39394</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -4005,19 +4005,19 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>101</v>
       </c>
       <c r="D45" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" t="s">
         <v>241</v>
       </c>
-      <c r="E45" t="s">
-        <v>242</v>
-      </c>
       <c r="F45">
         <v>0</v>
       </c>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K45" s="1">
         <v>39261</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>39358</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -4072,13 +4072,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K46" s="1">
         <v>39364</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -4096,22 +4096,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D47" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" t="s">
         <v>250</v>
       </c>
-      <c r="E47" t="s">
-        <v>251</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -4119,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K47" s="1">
         <v>39329</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>98</v>
       </c>
@@ -4154,11 +4154,11 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" t="s">
         <v>255</v>
       </c>
-      <c r="E48" t="s">
-        <v>256</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
@@ -4166,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K48" s="1">
         <v>39253</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>97</v>
       </c>
@@ -4198,14 +4198,14 @@
         <v>38727</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D49" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" t="s">
         <v>259</v>
       </c>
-      <c r="E49" t="s">
-        <v>260</v>
-      </c>
       <c r="F49">
         <v>0</v>
       </c>
@@ -4213,13 +4213,13 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K49" s="1">
         <v>39212</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4237,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>96</v>
       </c>
@@ -4248,11 +4248,11 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
+        <v>264</v>
+      </c>
+      <c r="E50" t="s">
         <v>265</v>
       </c>
-      <c r="E50" t="s">
-        <v>266</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
@@ -4260,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K50" s="1">
         <v>39148</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4292,14 +4292,14 @@
         <v>38813</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D51" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51" t="s">
         <v>269</v>
       </c>
-      <c r="E51" t="s">
-        <v>270</v>
-      </c>
       <c r="F51">
         <v>0</v>
       </c>
@@ -4307,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K51" s="1">
         <v>39119</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4342,13 +4342,13 @@
         <v>38355</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4357,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
+        <v>271</v>
+      </c>
+      <c r="J52" t="s">
         <v>272</v>
-      </c>
-      <c r="J52" t="s">
-        <v>273</v>
       </c>
       <c r="K52" s="1">
         <v>39016</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -4381,22 +4381,22 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D53" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" t="s">
         <v>278</v>
       </c>
-      <c r="E53" t="s">
-        <v>279</v>
-      </c>
       <c r="F53">
         <v>0</v>
       </c>
@@ -4404,13 +4404,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K53" s="1">
         <v>38890</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>92</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>38879</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -4454,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K54" s="1">
         <v>38890</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>91</v>
       </c>
@@ -4489,10 +4489,10 @@
         <v>2004</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -4504,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K55" s="1">
         <v>38764</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>90</v>
       </c>
@@ -4539,10 +4539,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4551,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K56" s="1">
         <v>38680</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>89</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K57" s="1">
         <v>38617</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>88</v>
       </c>
@@ -4630,14 +4630,14 @@
         <v>38316</v>
       </c>
       <c r="C58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D58" t="s">
+        <v>300</v>
+      </c>
+      <c r="E58" t="s">
         <v>301</v>
       </c>
-      <c r="E58" t="s">
-        <v>302</v>
-      </c>
       <c r="F58">
         <v>0</v>
       </c>
@@ -4645,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K58" s="1">
         <v>38526</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -4669,18 +4669,18 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4689,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K59" s="1">
         <v>38821</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>86</v>
       </c>
@@ -4721,14 +4721,14 @@
         <v>37987</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
+        <v>310</v>
+      </c>
+      <c r="E60" t="s">
         <v>311</v>
       </c>
-      <c r="E60" t="s">
-        <v>312</v>
-      </c>
       <c r="F60">
         <v>0</v>
       </c>
@@ -4736,13 +4736,13 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K60" s="1">
         <v>38295</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>85</v>
       </c>
@@ -4768,13 +4768,13 @@
         <v>38265</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K61" s="1">
         <v>38295</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>84</v>
       </c>
@@ -4818,10 +4818,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4830,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K62" s="1">
         <v>38086</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -4854,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>83</v>
       </c>
@@ -4865,13 +4865,13 @@
         <v>37609</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K63" s="1">
         <v>37973</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
@@ -4904,10 +4904,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>82</v>
       </c>
@@ -4915,14 +4915,14 @@
         <v>37306</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E64" t="s">
         <v>331</v>
       </c>
-      <c r="E64" t="s">
-        <v>332</v>
-      </c>
       <c r="F64">
         <v>0</v>
       </c>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K64" s="1">
         <v>38023</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
@@ -4954,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>81</v>
       </c>
@@ -4968,25 +4968,25 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" t="s">
         <v>336</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>337</v>
       </c>
-      <c r="F65" t="s">
-        <v>338</v>
-      </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K65" s="1">
         <v>37942</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N65" t="b">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>80</v>
       </c>
@@ -5012,13 +5012,13 @@
         <v>37558</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5027,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K66" s="1">
         <v>37959</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
@@ -5051,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>79</v>
       </c>
@@ -5062,13 +5062,13 @@
         <v>37713</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5077,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K67" s="1">
         <v>37882</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N67" t="b">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>78</v>
       </c>
@@ -5112,11 +5112,11 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
+        <v>349</v>
+      </c>
+      <c r="E68" t="s">
         <v>350</v>
       </c>
-      <c r="E68" t="s">
-        <v>351</v>
-      </c>
       <c r="F68">
         <v>0</v>
       </c>
@@ -5124,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K68" s="1">
         <v>37882</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N68" t="b">
         <v>0</v>
@@ -5148,18 +5148,18 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>355</v>
+        <v>550</v>
       </c>
       <c r="E69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5168,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K69" s="1">
         <v>37700</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N69" t="b">
         <v>0</v>
@@ -5192,10 +5192,10 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>76</v>
       </c>
@@ -5206,10 +5206,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E70" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J70" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K70" s="1">
         <v>37735</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N70" t="b">
         <v>0</v>
@@ -5242,12 +5242,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -5262,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J71" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K71" s="1">
         <v>37602</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N71" t="b">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>74</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>37368</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -5312,13 +5312,13 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J72" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K72" s="1">
         <v>37602</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N72" t="b">
         <v>0</v>
@@ -5336,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5347,13 +5347,13 @@
         <v>37151</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5362,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I73" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J73" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K73" s="1">
         <v>37525</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N73" t="b">
         <v>0</v>
@@ -5386,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5409,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J74" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K74" s="1">
         <v>37441</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N74" t="b">
         <v>0</v>
@@ -5433,10 +5433,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>37054</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
@@ -5459,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K75" s="1">
         <v>37371</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
@@ -5483,10 +5483,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>70</v>
       </c>
@@ -5503,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K76" s="1">
         <v>37238</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>69</v>
       </c>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I77" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K77" s="1">
         <v>37203</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N77" t="b">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>68</v>
       </c>
@@ -5591,13 +5591,13 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I78" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J78" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K78" s="1">
         <v>37040</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N78" t="b">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>67</v>
       </c>
@@ -5638,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I79" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J79" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K79" s="1">
         <v>36909</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N79" t="b">
         <v>1</v>
@@ -5662,10 +5662,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>36803</v>
       </c>
       <c r="C80" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
@@ -5688,13 +5688,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I80" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J80" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K80" s="1">
         <v>36853</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
@@ -5712,15 +5712,15 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -5735,13 +5735,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I81" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J81" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K81" s="1">
         <v>36783</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N81" t="b">
         <v>1</v>
@@ -5759,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>64</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>36567</v>
       </c>
       <c r="C82" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -5785,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I82" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J82" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K82" s="1">
         <v>36685</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N82" t="b">
         <v>0</v>
@@ -5809,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>63</v>
       </c>
@@ -5829,13 +5829,13 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I83" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J83" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K83" s="1">
         <v>36552</v>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N83" t="b">
         <v>0</v>
@@ -5853,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>62</v>
       </c>
@@ -5879,13 +5879,13 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I84" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J84" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K84" s="1">
         <v>36482</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N84" t="b">
         <v>0</v>
@@ -5903,10 +5903,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>61</v>
       </c>
@@ -5923,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J85" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K85" s="1">
         <v>36322</v>
@@ -5947,12 +5947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I86" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J86" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K86" s="1">
         <v>35971</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N86" t="b">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>59</v>
       </c>
@@ -6008,13 +6008,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I87" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K87" s="1">
         <v>35940</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N87" t="b">
         <v>0</v>
@@ -6032,7 +6032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>58</v>
       </c>
@@ -6052,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I88" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J88" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K88" s="1">
         <v>35958</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -6093,13 +6093,13 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I89" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J89" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K89" s="1">
         <v>35874</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N89" t="b">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>56</v>
       </c>
@@ -6134,13 +6134,13 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I90" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J90" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K90" s="1">
         <v>35836</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N90" t="b">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>55</v>
       </c>
@@ -6178,13 +6178,13 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J91" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K91" s="1">
         <v>35704</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N91" t="b">
         <v>0</v>
@@ -6202,12 +6202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
@@ -6222,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I92" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J92" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K92" s="1">
         <v>35542</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N92" t="b">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>53</v>
       </c>
@@ -6263,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I93" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J93" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K93" s="1">
         <v>35500</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>52</v>
       </c>
@@ -6304,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I94" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K94" s="1">
         <v>35500</v>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>51</v>
       </c>
@@ -6345,13 +6345,13 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I95" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J95" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K95" s="1">
         <v>35419</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N95" t="b">
         <v>0</v>
@@ -6369,15 +6369,15 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -6392,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I96" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J96" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K96" s="1">
         <v>35158</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N96" t="b">
         <v>0</v>
@@ -6416,12 +6416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
         <v>21</v>
@@ -6436,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I97" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J97" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K97" s="1">
         <v>35158</v>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N97" t="b">
         <v>0</v>
@@ -6460,12 +6460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
         <v>21</v>
@@ -6480,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I98" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J98" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K98" s="1">
         <v>35131</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N98" t="b">
         <v>0</v>
@@ -6504,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>47</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>34596</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D99" t="s">
         <v>21</v>
@@ -6530,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I99" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J99" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K99" s="1">
         <v>35074</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N99" t="b">
         <v>0</v>
@@ -6554,10 +6554,10 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>46</v>
       </c>
@@ -6574,13 +6574,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I100" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J100" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K100" s="1">
         <v>35002</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N100" t="b">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>45</v>
       </c>
@@ -6618,13 +6618,13 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I101" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J101" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K101" s="1">
         <v>34850</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N101" t="b">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>44</v>
       </c>
@@ -6659,13 +6659,13 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I102" t="s">
+        <v>60</v>
+      </c>
+      <c r="J102" t="s">
         <v>61</v>
-      </c>
-      <c r="J102" t="s">
-        <v>62</v>
       </c>
       <c r="K102" s="1">
         <v>34669</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N102" t="b">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>43</v>
       </c>
@@ -6706,13 +6706,13 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K103" s="1">
         <v>34661</v>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N103" t="b">
         <v>0</v>
@@ -6730,10 +6730,10 @@
         <v>4</v>
       </c>
       <c r="P103" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>42</v>
       </c>
@@ -6750,13 +6750,13 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I104" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J104" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K104" s="1">
         <v>34423</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N104" t="b">
         <v>0</v>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>41</v>
       </c>
@@ -6791,13 +6791,13 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I105" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J105" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K105" s="1">
         <v>34320</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N105" t="b">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>40</v>
       </c>
@@ -6835,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I106" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J106" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K106" s="1">
         <v>34320</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N106" t="b">
         <v>1</v>
@@ -6859,12 +6859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D107" t="s">
         <v>21</v>
@@ -6879,13 +6879,13 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I107" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J107" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K107" s="1">
         <v>34310</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N107" t="b">
         <v>0</v>
@@ -6903,12 +6903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D108" t="s">
         <v>21</v>
@@ -6923,13 +6923,13 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I108" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J108" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K108" s="1">
         <v>34256</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N108" t="b">
         <v>0</v>
@@ -6947,12 +6947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D109" t="s">
         <v>21</v>
@@ -6967,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I109" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J109" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K109" s="1">
         <v>34142</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N109" t="b">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>36</v>
       </c>
@@ -7008,13 +7008,13 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I110" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J110" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K110" s="1">
         <v>34142</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N110" t="b">
         <v>0</v>
@@ -7032,12 +7032,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -7052,13 +7052,13 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I111" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K111" s="1">
         <v>34107</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N111" t="b">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>34</v>
       </c>
@@ -7093,13 +7093,13 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I112" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J112" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K112" s="1">
         <v>34009</v>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N112" t="b">
         <v>0</v>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>33</v>
       </c>
@@ -7134,13 +7134,13 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I113" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J113" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K113" s="1">
         <v>33988</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N113" t="b">
         <v>0</v>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>32</v>
       </c>
@@ -7178,13 +7178,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I114" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J114" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K114" s="1">
         <v>33795</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N114" t="b">
         <v>0</v>
@@ -7202,10 +7202,10 @@
         <v>0</v>
       </c>
       <c r="P114" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>31</v>
       </c>
@@ -7222,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I115" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J115" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K115" s="1">
         <v>33691</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N115" t="b">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>30</v>
       </c>
@@ -7263,13 +7263,13 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I116" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J116" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K116" s="1">
         <v>33630</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N116" t="b">
         <v>0</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>29</v>
       </c>
@@ -7304,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I117" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J117" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K117" s="1">
         <v>33630</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N117" t="b">
         <v>0</v>
@@ -7328,10 +7328,10 @@
         <v>0</v>
       </c>
       <c r="P117" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>28</v>
       </c>
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I118" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J118" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K118" s="1">
         <v>33574</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N118" t="b">
         <v>0</v>
@@ -7372,15 +7372,15 @@
         <v>0</v>
       </c>
       <c r="P118" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D119" t="s">
         <v>21</v>
@@ -7395,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I119" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J119" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K119" s="1">
         <v>33574</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N119" t="b">
         <v>0</v>
@@ -7419,10 +7419,10 @@
         <v>0</v>
       </c>
       <c r="P119" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>26</v>
       </c>
@@ -7439,13 +7439,13 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I120" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J120" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K120" s="1">
         <v>33413</v>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N120" t="b">
         <v>0</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>25</v>
       </c>
@@ -7480,13 +7480,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I121" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J121" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K121" s="1">
         <v>33413</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N121" t="b">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24</v>
       </c>
@@ -7521,13 +7521,13 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I122" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J122" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K122" s="1">
         <v>33413</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N122" t="b">
         <v>0</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23</v>
       </c>
@@ -7562,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I123" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J123" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K123" s="1">
         <v>33220</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N123" t="b">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -7603,13 +7603,13 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I124" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J124" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K124" s="1">
         <v>33220</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N124" t="b">
         <v>0</v>
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21</v>
       </c>
@@ -7644,13 +7644,13 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I125" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J125" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K125" s="1">
         <v>33220</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N125" t="b">
         <v>0</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -7685,13 +7685,13 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I126" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J126" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K126" s="1">
         <v>33072</v>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N126" t="b">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>19</v>
       </c>
@@ -7726,13 +7726,13 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I127" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J127" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K127" s="1">
         <v>33072</v>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N127" t="b">
         <v>0</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>18</v>
       </c>
@@ -7767,13 +7767,13 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I128" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J128" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K128" s="1">
         <v>32857</v>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N128" t="b">
         <v>0</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>17</v>
       </c>
@@ -7808,13 +7808,13 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I129" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J129" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K129" s="1">
         <v>32857</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N129" t="b">
         <v>0</v>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>16</v>
       </c>
@@ -7849,13 +7849,13 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I130" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J130" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K130" s="1">
         <v>32797</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
@@ -7873,12 +7873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D131" t="s">
         <v>21</v>
@@ -7893,13 +7893,13 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I131" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J131" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K131" s="1">
         <v>32797</v>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N131" t="b">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -7937,13 +7937,13 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I132" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J132" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K132" s="1">
         <v>32493</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N132" t="b">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13</v>
       </c>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I133" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J133" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K133" s="1">
         <v>32454</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N133" t="b">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12</v>
       </c>
@@ -8019,13 +8019,13 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I134" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J134" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K134" s="1">
         <v>32454</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11</v>
       </c>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I135" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J135" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K135" s="1">
         <v>32117</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N135" t="b">
         <v>0</v>
@@ -8084,12 +8084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D136" t="s">
         <v>21</v>
@@ -8104,13 +8104,13 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I136" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J136" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K136" s="1">
         <v>32127</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N136" t="b">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9</v>
       </c>
@@ -8145,13 +8145,13 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I137" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J137" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K137" s="1">
         <v>31831</v>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -8186,13 +8186,13 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I138" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J138" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K138" s="1">
         <v>31761</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N138" t="b">
         <v>0</v>
@@ -8210,12 +8210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D139" t="s">
         <v>21</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I139" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J139" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K139" s="1">
         <v>31467</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N139" t="b">
         <v>0</v>
@@ -8254,12 +8254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D140" t="s">
         <v>21</v>
@@ -8274,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I140" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J140" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K140" s="1">
         <v>31180</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N140" t="b">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -8315,13 +8315,13 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I141" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J141" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K141" s="1">
         <v>31180</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N141" t="b">
         <v>0</v>
@@ -8339,12 +8339,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D142" t="s">
         <v>21</v>
@@ -8359,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I142" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J142" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K142" s="1">
         <v>31203</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N142" t="b">
         <v>0</v>
@@ -8383,10 +8383,10 @@
         <v>0</v>
       </c>
       <c r="P142" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -8403,13 +8403,13 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I143" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J143" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K143" s="1">
         <v>30978</v>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N143" t="b">
         <v>0</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -8447,13 +8447,13 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I144" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J144" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K144" s="1">
         <v>30935</v>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N144" t="b">
         <v>0</v>
@@ -8471,12 +8471,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D145" t="s">
         <v>21</v>
@@ -8491,13 +8491,13 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I145" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J145" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K145" s="1">
         <v>30824</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O146">
         <f>SUM(O2:O145)</f>
         <v>22</v>
@@ -8534,32 +8534,32 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" t="s">
-        <v>232</v>
-      </c>
       <c r="K1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8567,79 +8567,79 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M2" t="s">
         <v>538</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>539</v>
       </c>
-      <c r="M2" t="s">
-        <v>540</v>
-      </c>
-      <c r="N2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1528" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22336494-608F-47B7-A746-DE4A29F6D280}"/>
+  <xr:revisionPtr revIDLastSave="1537" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E9E11B-06B1-430F-9FF5-514420725E83}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="551">
   <si>
     <t>num</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Autres</t>
   </si>
   <si>
-    <t>Jean-François Bach,Alexandra Benachi,Thomas Bourgeron,Alain Clayes,Sophie Crozier,Claude Delpuech,Pierre-Henri Duée,Anne Durandy,Florence Gruat,Fabrice Gzil,Francis Puech,Dominique Quinio,Frédéric Worms</t>
-  </si>
-  <si>
     <t>Mounira Amor-Guéret,Marion Muller-Colard</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Génétique et Diagnostic</t>
   </si>
   <si>
-    <t>Anne Durandy-Torre,Michel Van Praet</t>
-  </si>
-  <si>
     <t>Christiane Basset,Margaret Buckingham,Hervé Chneiweiss, Laura Coulombel, Pierre-Henri Duée,Cynthia Fleury,Patrick Gaudray,Francis Puech, Alice Rene, Bertrand Weil</t>
   </si>
   <si>
@@ -430,9 +424,6 @@
   </si>
   <si>
     <t>Jean-Louis Vildé</t>
-  </si>
-  <si>
-    <t>Claire Legras,Claude Matuchansky,Didier Truchet,Bertrand Weil,Jean Claude Ameisen,Alain Cordier,Patrick Gaudray</t>
   </si>
   <si>
     <t>Recours aux techniques biomédicales en vue de « neuro-amélioration » chez la personne non malade: enjeux éthiques</t>
@@ -845,9 +836,6 @@
     <t>Détection trouble comportement</t>
   </si>
   <si>
-    <t>Jean-Claude Aimeisen,Claude Kordon</t>
-  </si>
-  <si>
     <t>Pierre Le Coz,Alain Grimfeld,Sadek Béloucif,Chantal Deschamps,Jean-Antoine Lepesant,Marie-Thérèse Hermange</t>
   </si>
   <si>
@@ -971,9 +959,6 @@
     <t>Commercialisation autotests</t>
   </si>
   <si>
-    <t>Anne Cambon-Thompsen,Maxime Seligmann</t>
-  </si>
-  <si>
     <t>Pascale Cossart,Jacqueline Mandelbaum,Nicole Questiaux,Sadek Béloucif,Jean-François Bloch-Lainé,Claude Burlet,Jean Rosa</t>
   </si>
   <si>
@@ -1688,10 +1673,25 @@
     <t>"groupe de travail auto saisie depuis avril 1993" et que des tableaux non chiffré</t>
   </si>
   <si>
-    <t>Alexandra Benachi,Laurent Chambaud,Séverine Laboue</t>
-  </si>
-  <si>
     <t>Hélène Gaumont-Prat,Nicole Questiaux,Gérard Orth</t>
+  </si>
+  <si>
+    <t>Alexandra Benachi,Laurent Chambaud,Séverine Laboué</t>
+  </si>
+  <si>
+    <t>Jean-François Bach,Alexandra Benachi,Thomas Bourgeron,Alain Clayes,Sophie Crozier,Claude Delpuech,Pierre-Henri Duée,Anne Durandy-Torre,Florence Gruat,Fabrice Gzil,Francis Puech,Dominique Quinio,Frédéric Worms</t>
+  </si>
+  <si>
+    <t>Anne Durandy-Torre,Michel Van Praët</t>
+  </si>
+  <si>
+    <t>Claire Legras,Claude Matuchansky,Didier Truchet,Bertrand Weil,Jean-Claude Ameisen,Alain Cordier,Patrick Gaudray</t>
+  </si>
+  <si>
+    <t>Anne Cambon-Thomsen,Maxime Seligmann</t>
+  </si>
+  <si>
+    <t>Jean-Claude Ameisen,Claude Kordon</t>
   </si>
 </sst>
 </file>
@@ -1746,6 +1746,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2014,7 +2018,7 @@
   <dimension ref="A1:P146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2026,7 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -2039,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2051,19 +2055,19 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -2075,10 +2079,10 @@
         <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2092,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -2104,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -2120,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -2129,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2152,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -2168,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -2177,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2203,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2250,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -2265,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2291,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
@@ -2338,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
@@ -2353,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -2367,10 +2371,10 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>546</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2379,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
@@ -2408,11 +2412,11 @@
         <v>137</v>
       </c>
       <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -2420,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
       </c>
       <c r="K9" s="1">
         <v>44336</v>
@@ -2449,25 +2453,25 @@
         <v>136</v>
       </c>
       <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
         <v>64</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
       </c>
       <c r="K10" s="1">
         <v>44301</v>
@@ -2493,25 +2497,25 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s">
-        <v>70</v>
       </c>
       <c r="K11" s="1">
         <v>44159</v>
@@ -2529,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2540,25 +2544,25 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="1">
         <v>43853</v>
@@ -2567,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -2581,10 +2585,10 @@
         <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2593,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="1">
         <v>43727</v>
@@ -2608,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -2625,25 +2629,25 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" t="s">
-        <v>89</v>
-      </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1">
         <v>43727</v>
@@ -2652,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -2661,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2675,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -2687,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K15" s="1">
         <v>43643</v>
@@ -2702,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -2719,10 +2723,10 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2731,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K16" s="1">
         <v>43645</v>
@@ -2746,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -2755,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2766,10 +2770,13 @@
         <v>43252</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2778,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" s="1">
         <v>43361</v>
@@ -2793,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -2810,10 +2817,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2822,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K18" s="1">
         <v>43146</v>
@@ -2837,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2851,10 +2858,10 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2863,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="1">
         <v>43024</v>
@@ -2878,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -2892,11 +2899,11 @@
         <v>126</v>
       </c>
       <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="E20" t="s">
-        <v>119</v>
-      </c>
       <c r="F20">
         <v>0</v>
       </c>
@@ -2904,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K20" s="1">
         <v>42901</v>
@@ -2919,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2933,10 +2940,10 @@
         <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2945,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K21" s="1">
         <v>42893</v>
@@ -2960,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2974,10 +2981,10 @@
         <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2986,13 +2993,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K22" s="1">
         <v>42542</v>
@@ -3001,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -3018,10 +3025,10 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>548</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3030,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K23" s="1">
         <v>42091</v>
@@ -3045,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -3054,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3065,10 +3072,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3077,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K24" s="2">
         <v>41671</v>
@@ -3092,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -3106,16 +3113,16 @@
         <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3124,13 +3131,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K25" s="1">
         <v>41455</v>
@@ -3139,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3148,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -3156,13 +3163,13 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3171,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K26" s="1">
         <v>41389</v>
@@ -3203,10 +3210,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3215,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K27" s="1">
         <v>41326</v>
@@ -3230,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3239,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -3250,10 +3257,10 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3262,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K28" s="1">
         <v>41179</v>
@@ -3277,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3286,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -3297,10 +3304,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3309,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K29" s="1">
         <v>40962</v>
@@ -3324,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3338,10 +3345,10 @@
         <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3350,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K30" s="1">
         <v>40962</v>
@@ -3365,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3379,10 +3386,10 @@
         <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3391,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K31" s="1">
         <v>40640</v>
@@ -3420,13 +3427,13 @@
         <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3435,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K32" s="1">
         <v>40668</v>
@@ -3450,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -3459,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3467,10 +3474,10 @@
         <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3479,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K33" s="1">
         <v>40584</v>
@@ -3494,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3511,10 +3518,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3523,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K34" s="1">
         <v>40472</v>
@@ -3538,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -3552,10 +3559,10 @@
         <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -3567,13 +3574,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K35" s="1">
         <v>40185</v>
@@ -3582,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3591,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3599,13 +3606,13 @@
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3614,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K36" s="1">
         <v>40269</v>
@@ -3629,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3646,10 +3653,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3658,13 +3665,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K37" s="1">
         <v>40213</v>
@@ -3687,13 +3694,13 @@
         <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3702,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K38" s="1">
         <v>40129</v>
@@ -3717,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -3726,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3734,10 +3741,10 @@
         <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3746,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K39" s="1">
         <v>40101</v>
@@ -3761,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -3775,13 +3782,13 @@
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3790,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K40" s="1">
         <v>39849</v>
@@ -3814,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -3825,7 +3832,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -3837,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K41" s="1">
         <v>39730</v>
@@ -3852,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -3869,10 +3876,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3881,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K42" s="1">
         <v>39597</v>
@@ -3896,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -3905,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3916,13 +3923,13 @@
         <v>39127</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3931,13 +3938,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J43" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K43" s="1">
         <v>39422</v>
@@ -3946,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -3955,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3966,28 +3973,28 @@
         <v>38543</v>
       </c>
       <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s">
+        <v>217</v>
+      </c>
+      <c r="J44" t="s">
         <v>218</v>
-      </c>
-      <c r="D44" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" t="s">
-        <v>220</v>
-      </c>
-      <c r="J44" t="s">
-        <v>221</v>
       </c>
       <c r="K44" s="1">
         <v>39394</v>
@@ -3996,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -4005,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -4013,10 +4020,10 @@
         <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4025,13 +4032,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K45" s="1">
         <v>39261</v>
@@ -4040,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -4057,28 +4064,28 @@
         <v>39358</v>
       </c>
       <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s">
+        <v>243</v>
+      </c>
+      <c r="J46" t="s">
         <v>242</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" t="s">
-        <v>246</v>
-      </c>
-      <c r="J46" t="s">
-        <v>245</v>
       </c>
       <c r="K46" s="1">
         <v>39364</v>
@@ -4096,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -4104,13 +4111,13 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4119,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J47" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K47" s="1">
         <v>39329</v>
@@ -4134,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4143,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4154,10 +4161,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4166,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K48" s="1">
         <v>39253</v>
@@ -4181,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -4198,13 +4205,13 @@
         <v>38727</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4213,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K49" s="1">
         <v>39212</v>
@@ -4228,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4237,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4248,10 +4255,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4260,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K50" s="1">
         <v>39148</v>
@@ -4275,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4292,13 +4299,13 @@
         <v>38813</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>550</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4307,13 +4314,13 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K51" s="1">
         <v>39119</v>
@@ -4322,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -4331,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4342,13 +4349,13 @@
         <v>38355</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4357,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J52" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K52" s="1">
         <v>39016</v>
@@ -4372,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -4381,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -4389,13 +4396,13 @@
         <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E53" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4404,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J53" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K53" s="1">
         <v>38890</v>
@@ -4428,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -4439,10 +4446,10 @@
         <v>38879</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -4454,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J54" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K54" s="1">
         <v>38890</v>
@@ -4469,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -4478,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4489,10 +4496,10 @@
         <v>2004</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D55" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -4504,13 +4511,13 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J55" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K55" s="1">
         <v>38764</v>
@@ -4519,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -4528,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -4539,10 +4546,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E56" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4551,13 +4558,13 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J56" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K56" s="1">
         <v>38680</v>
@@ -4566,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -4589,7 +4596,7 @@
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4598,13 +4605,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J57" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K57" s="1">
         <v>38617</v>
@@ -4613,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -4630,13 +4637,13 @@
         <v>38316</v>
       </c>
       <c r="C58" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D58" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4645,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J58" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K58" s="1">
         <v>38526</v>
@@ -4660,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -4669,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -4677,10 +4684,10 @@
         <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4689,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J59" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K59" s="1">
         <v>38821</v>
@@ -4704,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -4721,13 +4728,13 @@
         <v>37987</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>310</v>
+        <v>549</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4736,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J60" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K60" s="1">
         <v>38295</v>
@@ -4751,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -4768,13 +4775,13 @@
         <v>38265</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4783,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J61" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K61" s="1">
         <v>38295</v>
@@ -4798,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -4818,10 +4825,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E62" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4830,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I62" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J62" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K62" s="1">
         <v>38086</v>
@@ -4845,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -4854,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -4865,14 +4872,14 @@
         <v>37609</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D63" t="s">
+        <v>316</v>
+      </c>
+      <c r="E63" t="s">
         <v>321</v>
       </c>
-      <c r="E63" t="s">
-        <v>326</v>
-      </c>
       <c r="F63">
         <v>0</v>
       </c>
@@ -4880,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J63" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K63" s="1">
         <v>37973</v>
@@ -4895,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
@@ -4904,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -4915,13 +4922,13 @@
         <v>37306</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4930,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J64" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K64" s="1">
         <v>38023</v>
@@ -4945,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
@@ -4954,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -4968,25 +4975,25 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F65" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I65" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J65" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K65" s="1">
         <v>37942</v>
@@ -4995,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N65" t="b">
         <v>0</v>
@@ -5012,13 +5019,13 @@
         <v>37558</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5027,13 +5034,13 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I66" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J66" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K66" s="1">
         <v>37959</v>
@@ -5042,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
@@ -5051,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -5062,13 +5069,13 @@
         <v>37713</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E67" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5077,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J67" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K67" s="1">
         <v>37882</v>
@@ -5092,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N67" t="b">
         <v>0</v>
@@ -5112,10 +5119,10 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E68" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5124,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J68" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K68" s="1">
         <v>37882</v>
@@ -5139,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N68" t="b">
         <v>0</v>
@@ -5148,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -5156,10 +5163,10 @@
         <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E69" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5168,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I69" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J69" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K69" s="1">
         <v>37700</v>
@@ -5183,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N69" t="b">
         <v>0</v>
@@ -5192,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -5206,10 +5213,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E70" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5218,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J70" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K70" s="1">
         <v>37735</v>
@@ -5233,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N70" t="b">
         <v>0</v>
@@ -5247,7 +5254,7 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -5262,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J71" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K71" s="1">
         <v>37602</v>
@@ -5286,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -5297,7 +5304,7 @@
         <v>37368</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -5312,13 +5319,13 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J72" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K72" s="1">
         <v>37602</v>
@@ -5327,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N72" t="b">
         <v>0</v>
@@ -5336,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -5347,13 +5354,13 @@
         <v>37151</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E73" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5362,13 +5369,13 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I73" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J73" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K73" s="1">
         <v>37525</v>
@@ -5377,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N73" t="b">
         <v>0</v>
@@ -5386,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -5409,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J74" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K74" s="1">
         <v>37441</v>
@@ -5433,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5444,7 +5451,7 @@
         <v>37054</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
@@ -5459,13 +5466,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J75" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K75" s="1">
         <v>37371</v>
@@ -5474,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
@@ -5483,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -5503,13 +5510,13 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J76" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K76" s="1">
         <v>37238</v>
@@ -5544,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J77" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K77" s="1">
         <v>37203</v>
@@ -5559,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N77" t="b">
         <v>0</v>
@@ -5591,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J78" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K78" s="1">
         <v>37040</v>
@@ -5606,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N78" t="b">
         <v>0</v>
@@ -5615,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -5638,13 +5645,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J79" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K79" s="1">
         <v>36909</v>
@@ -5653,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N79" t="b">
         <v>1</v>
@@ -5662,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5673,7 +5680,7 @@
         <v>36803</v>
       </c>
       <c r="C80" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
@@ -5688,13 +5695,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I80" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J80" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K80" s="1">
         <v>36853</v>
@@ -5703,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
@@ -5712,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5720,7 +5727,7 @@
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -5735,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J81" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K81" s="1">
         <v>36783</v>
@@ -5750,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N81" t="b">
         <v>1</v>
@@ -5759,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5770,7 +5777,7 @@
         <v>36567</v>
       </c>
       <c r="C82" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -5785,13 +5792,13 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J82" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K82" s="1">
         <v>36685</v>
@@ -5809,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5829,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J83" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K83" s="1">
         <v>36552</v>
@@ -5844,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N83" t="b">
         <v>0</v>
@@ -5853,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5879,13 +5886,13 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J84" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K84" s="1">
         <v>36482</v>
@@ -5894,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N84" t="b">
         <v>0</v>
@@ -5903,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5923,13 +5930,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J85" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K85" s="1">
         <v>36322</v>
@@ -5952,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -5967,13 +5974,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J86" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K86" s="1">
         <v>35971</v>
@@ -5982,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N86" t="b">
         <v>0</v>
@@ -6008,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I87" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K87" s="1">
         <v>35940</v>
@@ -6023,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N87" t="b">
         <v>0</v>
@@ -6052,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="J88" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K88" s="1">
         <v>35958</v>
@@ -6093,13 +6100,13 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J89" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K89" s="1">
         <v>35874</v>
@@ -6134,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J90" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K90" s="1">
         <v>35836</v>
@@ -6149,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N90" t="b">
         <v>0</v>
@@ -6178,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J91" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K91" s="1">
         <v>35704</v>
@@ -6193,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N91" t="b">
         <v>0</v>
@@ -6207,7 +6214,7 @@
         <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
@@ -6222,13 +6229,13 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J92" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K92" s="1">
         <v>35542</v>
@@ -6237,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N92" t="b">
         <v>0</v>
@@ -6263,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I93" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J93" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K93" s="1">
         <v>35500</v>
@@ -6304,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J94" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K94" s="1">
         <v>35500</v>
@@ -6345,13 +6352,13 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I95" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J95" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K95" s="1">
         <v>35419</v>
@@ -6360,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N95" t="b">
         <v>0</v>
@@ -6369,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -6377,7 +6384,7 @@
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -6392,13 +6399,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J96" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K96" s="1">
         <v>35158</v>
@@ -6407,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N96" t="b">
         <v>0</v>
@@ -6421,7 +6428,7 @@
         <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D97" t="s">
         <v>21</v>
@@ -6436,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J97" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K97" s="1">
         <v>35158</v>
@@ -6451,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N97" t="b">
         <v>0</v>
@@ -6465,7 +6472,7 @@
         <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D98" t="s">
         <v>21</v>
@@ -6480,13 +6487,13 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I98" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J98" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K98" s="1">
         <v>35131</v>
@@ -6495,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N98" t="b">
         <v>0</v>
@@ -6504,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -6515,7 +6522,7 @@
         <v>34596</v>
       </c>
       <c r="C99" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D99" t="s">
         <v>21</v>
@@ -6530,13 +6537,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J99" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K99" s="1">
         <v>35074</v>
@@ -6545,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N99" t="b">
         <v>0</v>
@@ -6554,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -6574,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I100" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J100" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K100" s="1">
         <v>35002</v>
@@ -6589,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N100" t="b">
         <v>0</v>
@@ -6618,13 +6625,13 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I101" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J101" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K101" s="1">
         <v>34850</v>
@@ -6659,13 +6666,13 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s">
+        <v>59</v>
+      </c>
+      <c r="J102" t="s">
         <v>60</v>
-      </c>
-      <c r="J102" t="s">
-        <v>61</v>
       </c>
       <c r="K102" s="1">
         <v>34669</v>
@@ -6674,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N102" t="b">
         <v>0</v>
@@ -6706,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I103" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J103" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K103" s="1">
         <v>34661</v>
@@ -6721,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N103" t="b">
         <v>0</v>
@@ -6730,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="P103" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -6750,13 +6757,13 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I104" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J104" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K104" s="1">
         <v>34423</v>
@@ -6765,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N104" t="b">
         <v>0</v>
@@ -6791,13 +6798,13 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I105" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J105" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K105" s="1">
         <v>34320</v>
@@ -6806,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N105" t="b">
         <v>0</v>
@@ -6835,13 +6842,13 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I106" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="J106" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K106" s="1">
         <v>34320</v>
@@ -6850,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N106" t="b">
         <v>1</v>
@@ -6864,7 +6871,7 @@
         <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D107" t="s">
         <v>21</v>
@@ -6879,13 +6886,13 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I107" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J107" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K107" s="1">
         <v>34310</v>
@@ -6894,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N107" t="b">
         <v>0</v>
@@ -6908,7 +6915,7 @@
         <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D108" t="s">
         <v>21</v>
@@ -6923,13 +6930,13 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J108" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K108" s="1">
         <v>34256</v>
@@ -6938,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N108" t="b">
         <v>0</v>
@@ -6952,7 +6959,7 @@
         <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D109" t="s">
         <v>21</v>
@@ -6967,13 +6974,13 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I109" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J109" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K109" s="1">
         <v>34142</v>
@@ -6982,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N109" t="b">
         <v>0</v>
@@ -7008,13 +7015,13 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I110" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J110" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K110" s="1">
         <v>34142</v>
@@ -7023,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N110" t="b">
         <v>0</v>
@@ -7037,7 +7044,7 @@
         <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -7052,13 +7059,13 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I111" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="J111" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K111" s="1">
         <v>34107</v>
@@ -7067,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N111" t="b">
         <v>0</v>
@@ -7093,13 +7100,13 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I112" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J112" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K112" s="1">
         <v>34009</v>
@@ -7108,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N112" t="b">
         <v>0</v>
@@ -7134,13 +7141,13 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I113" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J113" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K113" s="1">
         <v>33988</v>
@@ -7149,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N113" t="b">
         <v>0</v>
@@ -7178,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I114" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J114" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K114" s="1">
         <v>33795</v>
@@ -7193,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N114" t="b">
         <v>0</v>
@@ -7202,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -7222,13 +7229,13 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I115" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="J115" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K115" s="1">
         <v>33691</v>
@@ -7263,13 +7270,13 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I116" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J116" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K116" s="1">
         <v>33630</v>
@@ -7278,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N116" t="b">
         <v>0</v>
@@ -7304,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I117" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="J117" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K117" s="1">
         <v>33630</v>
@@ -7328,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="P117" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -7348,13 +7355,13 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I118" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J118" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K118" s="1">
         <v>33574</v>
@@ -7363,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N118" t="b">
         <v>0</v>
@@ -7372,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="P118" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -7380,7 +7387,7 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D119" t="s">
         <v>21</v>
@@ -7395,13 +7402,13 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I119" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J119" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K119" s="1">
         <v>33574</v>
@@ -7410,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N119" t="b">
         <v>0</v>
@@ -7419,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="P119" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -7439,13 +7446,13 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I120" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J120" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K120" s="1">
         <v>33413</v>
@@ -7454,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N120" t="b">
         <v>0</v>
@@ -7480,13 +7487,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I121" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J121" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K121" s="1">
         <v>33413</v>
@@ -7495,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N121" t="b">
         <v>0</v>
@@ -7521,13 +7528,13 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I122" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J122" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K122" s="1">
         <v>33413</v>
@@ -7536,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N122" t="b">
         <v>0</v>
@@ -7562,13 +7569,13 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I123" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="J123" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K123" s="1">
         <v>33220</v>
@@ -7577,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N123" t="b">
         <v>0</v>
@@ -7603,13 +7610,13 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I124" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="J124" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K124" s="1">
         <v>33220</v>
@@ -7618,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N124" t="b">
         <v>0</v>
@@ -7644,13 +7651,13 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I125" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="J125" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K125" s="1">
         <v>33220</v>
@@ -7659,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N125" t="b">
         <v>0</v>
@@ -7685,13 +7692,13 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I126" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J126" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K126" s="1">
         <v>33072</v>
@@ -7700,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N126" t="b">
         <v>0</v>
@@ -7726,13 +7733,13 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I127" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J127" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K127" s="1">
         <v>33072</v>
@@ -7741,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N127" t="b">
         <v>0</v>
@@ -7767,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I128" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J128" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K128" s="1">
         <v>32857</v>
@@ -7782,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N128" t="b">
         <v>0</v>
@@ -7808,13 +7815,13 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J129" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K129" s="1">
         <v>32857</v>
@@ -7823,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N129" t="b">
         <v>0</v>
@@ -7849,13 +7856,13 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I130" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J130" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K130" s="1">
         <v>32797</v>
@@ -7864,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
@@ -7878,7 +7885,7 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D131" t="s">
         <v>21</v>
@@ -7893,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I131" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J131" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K131" s="1">
         <v>32797</v>
@@ -7908,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N131" t="b">
         <v>0</v>
@@ -7937,13 +7944,13 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I132" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J132" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K132" s="1">
         <v>32493</v>
@@ -7952,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N132" t="b">
         <v>0</v>
@@ -7978,13 +7985,13 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I133" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J133" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K133" s="1">
         <v>32454</v>
@@ -8019,13 +8026,13 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I134" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J134" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K134" s="1">
         <v>32454</v>
@@ -8060,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I135" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J135" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="K135" s="1">
         <v>32117</v>
@@ -8075,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N135" t="b">
         <v>0</v>
@@ -8089,7 +8096,7 @@
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D136" t="s">
         <v>21</v>
@@ -8104,13 +8111,13 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I136" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="J136" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K136" s="1">
         <v>32127</v>
@@ -8119,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N136" t="b">
         <v>1</v>
@@ -8145,13 +8152,13 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I137" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="J137" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K137" s="1">
         <v>31831</v>
@@ -8186,13 +8193,13 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I138" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J138" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K138" s="1">
         <v>31761</v>
@@ -8201,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N138" t="b">
         <v>0</v>
@@ -8215,7 +8222,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D139" t="s">
         <v>21</v>
@@ -8230,13 +8237,13 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I139" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J139" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K139" s="1">
         <v>31467</v>
@@ -8245,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N139" t="b">
         <v>0</v>
@@ -8259,7 +8266,7 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D140" t="s">
         <v>21</v>
@@ -8274,13 +8281,13 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I140" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="J140" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K140" s="1">
         <v>31180</v>
@@ -8289,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N140" t="b">
         <v>0</v>
@@ -8315,13 +8322,13 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I141" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="J141" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K141" s="1">
         <v>31180</v>
@@ -8330,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N141" t="b">
         <v>0</v>
@@ -8344,7 +8351,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D142" t="s">
         <v>21</v>
@@ -8359,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I142" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J142" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K142" s="1">
         <v>31203</v>
@@ -8374,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N142" t="b">
         <v>0</v>
@@ -8383,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="P142" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -8403,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I143" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="J143" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K143" s="1">
         <v>30978</v>
@@ -8418,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N143" t="b">
         <v>0</v>
@@ -8447,13 +8454,13 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I144" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="J144" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K144" s="1">
         <v>30935</v>
@@ -8462,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N144" t="b">
         <v>0</v>
@@ -8476,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D145" t="s">
         <v>21</v>
@@ -8491,13 +8498,13 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I145" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="J145" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K145" s="1">
         <v>30824</v>
@@ -8538,25 +8545,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" t="s">
         <v>230</v>
-      </c>
-      <c r="H1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8567,28 +8574,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="N2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8596,7 +8603,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8611,35 +8618,35 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1537" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E9E11B-06B1-430F-9FF5-514420725E83}"/>
+  <xr:revisionPtr revIDLastSave="1572" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27808F61-6838-4BF8-8FA7-EF410B0ACC4D}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="553">
   <si>
     <t>num</t>
   </si>
@@ -117,33 +117,15 @@
     <t>vote pleniere = celle du CCNE</t>
   </si>
   <si>
-    <t>Emmanuel Didier,Christine Froidevaux,Jérôme Perrin</t>
-  </si>
-  <si>
     <t>Fabrice Gzil,Karine Lefeuvre</t>
   </si>
   <si>
-    <t>Régis Aubry,Jean-François Bach,Yvanie Caillé,Anne Caron-Déglise,Alain Claeys,Didier Dreyfuss,Jean-Louis Haurie,Florence Jusot,François Stasse</t>
-  </si>
-  <si>
     <t>Gilles Adda,Thomas Bourgeron,Sophie Crozier,Pierre Delmas-Goyon,Fabrice Gzil,Claude Kirchner,Caroline Martin</t>
   </si>
   <si>
-    <t>Jacques Bringer,Jeany Jean-Baptiste,Valéry Ravix</t>
-  </si>
-  <si>
-    <t>Alexandra Benachi,Yvanie Caillé,Anne Caron-Déglise,Alain Claeys,Sophie Crozier,Annabelle Desgrées du Loû,Didier Dreyfuss,Cécile Duflot,Séverine Laboue,Noémie Nauleau</t>
-  </si>
-  <si>
-    <t>Emmanuel Didier,David Gruson</t>
-  </si>
-  <si>
     <t>Gilles Adda,Laure Coulombel</t>
   </si>
   <si>
-    <t>Catherine Adamsbaum, Erik Boucher de Crèvecœur,Raja Chatila,Laurence Devillers,Karine Dognin-Sauze,Valeria Faure-Muntian,Christine Froidevaux,Jean-Gabriel Ganascia,Emmanuel Hirsch,Claude Kirchner</t>
-  </si>
-  <si>
     <t xml:space="preserve">Repenser le système de soins sur un fondement éthique. Leçons de la crise sanitaire et hospitalière, diagnostic et perspectives </t>
   </si>
   <si>
@@ -240,12 +222,6 @@
     <t>Sophie Crozier,Florence Jusot</t>
   </si>
   <si>
-    <t xml:space="preserve">Anne-Marie Taburet </t>
-  </si>
-  <si>
-    <t>Mounira Amor-Guéret,Jean-François Bach,Christiane Basset,Monique Canto-Sperber,Jean-François Delfraissy,Pierre Delmas-Goyon,Pierre-Henri Duée,Anne Durandy-Torre,Corinne Imbert,Francis Puech,Dominique Quinio,Bertrand Weil,Louise Bacquet</t>
-  </si>
-  <si>
     <t>Accès aux innovations thérapeutiques : Enjeux éthiques</t>
   </si>
   <si>
@@ -273,15 +249,9 @@
     <t>Génétique et Diagnostic</t>
   </si>
   <si>
-    <t>Christiane Basset,Margaret Buckingham,Hervé Chneiweiss, Laura Coulombel, Pierre-Henri Duée,Cynthia Fleury,Patrick Gaudray,Francis Puech, Alice Rene, Bertrand Weil</t>
-  </si>
-  <si>
     <t>François Ansermet,Pierre Delmas-Goyon</t>
   </si>
   <si>
-    <t>Christiane Basset,Marie-Germaine Bousser,Claude Delpuech,Anne Durandy-Torre,Pierre-Henri Duée,Marion Muller-Collard</t>
-  </si>
-  <si>
     <t>Laure Neliaz</t>
   </si>
   <si>
@@ -387,9 +357,6 @@
     <t>François Ansermet,Frédérique Kuttenn,Frédéric Worms</t>
   </si>
   <si>
-    <t>Christiane Basset,Carine Camby,Anne Marie Dickelé,Pierre-Henri Duée,Martine Le Friant,Patrick Gaudray,Florence Gruat,Francis Puech</t>
-  </si>
-  <si>
     <t>Christiane Basset, Marianne Carbonnier-Burkard,Laure Coulombel,Anne-Marie Dickelé,Frédérique Dreifuss-Netter,Pierre-Henri Duée,Jean-Noël Fiessinger,Florence Gruat,Marie-Angèle Hermitte,Xavier Lacroix,Michelle Meunier,Francis Puech,Dominique Quinio,Jean-Louis Vildé,Bertrand Weil</t>
   </si>
   <si>
@@ -402,9 +369,6 @@
     <t>Pierre-Henri Duée,Jean-Pierre Mignard,Michel Van Praët</t>
   </si>
   <si>
-    <t>Abdennour Bidar,Roger-Pole Droit,Cynthia Fleury,Patrick Gaudray,Alain Grimfeld,Francis Puech,Claudine Tiercelin,Bertrand Weil</t>
-  </si>
-  <si>
     <t>Réflexion éthique sur l’évolution des tests génétiques liée au séquençage de l’ADN humain à très haut débit</t>
   </si>
   <si>
@@ -414,9 +378,6 @@
     <t>Cynthia Fleury,Patrick Gaudray</t>
   </si>
   <si>
-    <t>Christianne Basset,Laure Coulombel,Frédérique Dreifuss-Netter,Claude Matuchansky,Francis Puech,Philippe Rouvillois,Dominique Stoppa-Lyonnet</t>
-  </si>
-  <si>
     <t>Questionnement éthique et observations concernant la contre-indication permanente du don de sang pour tout homme déclarant avoir eu une ou des relation(s) sexuelle(s) avec un ou plusieurs homme(s)</t>
   </si>
   <si>
@@ -451,9 +412,6 @@
   </si>
   <si>
     <t>Régis Aubry,Claire Legras</t>
-  </si>
-  <si>
-    <t>Michaël Azoulay,François Beaufils,Ali Benmakhlouf,Alain Claeys, André Comte-Sponville,Anne-Marie Dickelé,Frédérique Drefuss-Netter,Jean-Pierre Kahane,Xavier Lacroix,Claude Matuchansky,Francis Puech,Louis Schweitzer,Jean-Louis Vildé,Bertrand Weil</t>
   </si>
   <si>
     <t>fin 2012</t>
@@ -511,9 +469,6 @@
     <t>Michaël Azoulay,Patrick Gaudray,Pierre Le Coz,Bertrand Weil</t>
   </si>
   <si>
-    <t>Claude Burlet,Claude Matuchansky,Claude Sureau,Jean Louis Vildé</t>
-  </si>
-  <si>
     <t>Enjeux éthiques de la neuroimagerie fonctionnelle</t>
   </si>
   <si>
@@ -547,9 +502,6 @@
     <t>Claude Burlet,Philippe Rouvillois,Jean-Louis Vildé</t>
   </si>
   <si>
-    <t>Yves Agis,Jean-Claude Ameisen,Marie-Germaine Boussser,Chantal Lebatard,Pierre Le Coz,Claire Legrad,Claude Matuchansky,Philippe Waquet</t>
-  </si>
-  <si>
     <t>La demande d'assistance médicale à la procréation après le décès de l'homme faisant partie du couple</t>
   </si>
   <si>
@@ -595,9 +547,6 @@
     <t>GPA</t>
   </si>
   <si>
-    <t>Jean-Claude Ameisen,François Beaufils,Joëlle Belaisch-Allart,Ali Benmakhlouf,Patrick Gaudray,Françoise Héritier,Marie-Thérèse Hermange,Chantal Lebatard,Pierre Le Coz,Jacqueline Mandelbaum,Michel Roux, Daniele Siroux,Claude Sureau,Jean-Louis Vildé,Philippe Waquet</t>
-  </si>
-  <si>
     <t>auto ?</t>
   </si>
   <si>
@@ -610,9 +559,6 @@
     <t>Pascale Cossart,Patrick Gaudray</t>
   </si>
   <si>
-    <t>Annick Alpérovitch,Ali Benmakhlouf,Claude Burlet,Roger-Pol Droit,Emmanuel Jolivet,Claude Matuchansky,Philippe Rouvilois,Dominique Stoppa-Lyonnet</t>
-  </si>
-  <si>
     <t>Avis sur les questions éthiques liées au développement et au financement des soins palliatifs</t>
   </si>
   <si>
@@ -680,9 +626,6 @@
   </si>
   <si>
     <t>Pierre Le Coz,Claude Kordon</t>
-  </si>
-  <si>
-    <t>Annick Alpérovitch,Jean-Claude Ameisen,Roger-Pol Droit,Patrick Gaudray,Alain Grimfeld,Haïm Korsia,Chantal Lebatard,Armand de Ricqlès,Philippe Rouvillois</t>
   </si>
   <si>
     <t>association</t>
@@ -863,9 +806,6 @@
     <t>Monique Canto-Sperber</t>
   </si>
   <si>
-    <t>Anne Cambon-Thomsen,Hélène Gaumont-Prat,Chantal Lebatard,Martine Loizeau,Jacqueline Mandelbaum,Carole Moquin-Pattey,Dominique Stoppa-Lyonnet,Jean-Claude Ameisen,Sadek Beloucif,Pierre Le Coz,Olivier de Dinechin,Alain Fischer,Jean-Louis Lorrain,Jacques Montagut,Philippe Rouvillois,Maxime Seligmann,Alain-Gérard Slama</t>
-  </si>
-  <si>
     <t>saisi par le professeur Degos</t>
   </si>
   <si>
@@ -998,15 +938,9 @@
     <t>Marie-Thérèse Hermange,Chantal Lebatard,Jacqueline Mandelbaum,Pascale Cossart,Françoise Héritier,Olivier de Dinechin,Haïm Korsia,Pierre Le Coz,Maxime Seligmann,Alain Grimfeld,Jean Michaud,Jean-François Bloch-Lainé,Jean-François Collange,Jacques Montagut</t>
   </si>
   <si>
-    <t>Pascale Cossart,Mireille Delmas-Marty,Chantal Deschamps,Marie-Jeanne Dien,Jean-Claude Ameisen,Sadek Beloucif,Jean-François Bloch-Lainé,Pierre Le Coz,Jean Michaud</t>
-  </si>
-  <si>
     <t>Chantal Deschamps,Nicole Questiaux,Sadek Béloucif,Jean-Paul Caverni,Jean-François Bloch-Lainé,Claude Burlet,Olivier de Dinechin,Jean Michaud,Denys Pellerin,Maxime Seligmann,Alain-Gérard Slama</t>
   </si>
   <si>
-    <t>Sadek Béloucif,Jean-François Bloch-Lainé,Pascale Cossart,Olivier de Dinechin,Chantal Deschamps,Chantal Lebatard,Jacqueline Mandelbaum,Jacques Montagut,Jean Rosa,Gwen Terrenoire</t>
-  </si>
-  <si>
     <t>saisi par Professeur Kitzis du CHU de Poitiers</t>
   </si>
   <si>
@@ -1034,9 +968,6 @@
     <t>Jean-François Collange</t>
   </si>
   <si>
-    <t>Jean-François Bloch-Lainé,Chantal Deschamps,Jacque Montagut,Mario Stasi,Dominique Wolton</t>
-  </si>
-  <si>
     <t>Victor Courtecuisse</t>
   </si>
   <si>
@@ -1064,9 +995,6 @@
     <t>Maxime Seligmann</t>
   </si>
   <si>
-    <t>Hélène Gaumont-Prat,Martine Loizau,Jean-Paul Caverni,Pierre Le Coz,Jean Michaud,Denys Pellerin, Mario Stasi, Maxime Seligmann,Jacque Montagut</t>
-  </si>
-  <si>
     <t>Inégalités d'accès aux soins et dans la participation à la recherche à l'échelle mondiale - problèmes éthiques</t>
   </si>
   <si>
@@ -1076,9 +1004,6 @@
     <t>Maxime Seligmann,Mario Stasi, Sadek Béloucif</t>
   </si>
   <si>
-    <t>Jacque Montagut,Dominique Wolton, Marie-Jeanne Dien</t>
-  </si>
-  <si>
     <t>saisi par Bernard Kouchner, alors Secrétaire d'Etat à la Santé et à l'action sociale auprès de la ministre de l'emploi et de la solidarité</t>
   </si>
   <si>
@@ -1088,9 +1013,6 @@
     <t>Collection matériel biologique</t>
   </si>
   <si>
-    <t>N. Baumann,Anne Combon-Thompsen,Monique Canto-Sperber, B. Kriegel,Martine Loizeau,Sadek Béloucif, G.Breart</t>
-  </si>
-  <si>
     <t>A propos de l'obligation d'information génétique familiale en cas de nécessité médicale</t>
   </si>
   <si>
@@ -1679,9 +1601,6 @@
     <t>Alexandra Benachi,Laurent Chambaud,Séverine Laboué</t>
   </si>
   <si>
-    <t>Jean-François Bach,Alexandra Benachi,Thomas Bourgeron,Alain Clayes,Sophie Crozier,Claude Delpuech,Pierre-Henri Duée,Anne Durandy-Torre,Florence Gruat,Fabrice Gzil,Francis Puech,Dominique Quinio,Frédéric Worms</t>
-  </si>
-  <si>
     <t>Anne Durandy-Torre,Michel Van Praët</t>
   </si>
   <si>
@@ -1692,6 +1611,93 @@
   </si>
   <si>
     <t>Jean-Claude Ameisen,Claude Kordon</t>
+  </si>
+  <si>
+    <t>Régis Aubry,Jean-François Bach,Yvanie Caillé,Anne Caron-Déglise,Alain Claeys,Didier Dreyfuss,Jean-Louis Haurié,Florence Jusot,François Stasse</t>
+  </si>
+  <si>
+    <t>Alexandra Benachi,Yvanie Caillé,Anne Caron-Déglise,Alain Claeys,Sophie Crozier,Annabel Desgrées du Loû,Didier Dreyfuss,Cécile Duflot,Séverine Laboué,Noémie Nauleau</t>
+  </si>
+  <si>
+    <t>Jean-François Bach,Alexandra Benachi,Thomas Bourgeron,Alain Claeys,Sophie Crozier,Claude Delpuech,Pierre-Henri Duée,Anne Durandy-Torre,Florence Gruat,Fabrice Gzil,Francis Puech,Dominique Quinio,Frédéric Worms</t>
+  </si>
+  <si>
+    <t>Mounira Amor-Guéret,Jean-François Bach,Christiane Basset,Monique Canto-Sperber,Jean-François Delfraissy,Pierre Delmas-Goyon,Pierre-Henri Duée,Anne Durandy-Torre,Corinne Imbert,Francis Puech,Dominique Quinio,Bertrand Weil</t>
+  </si>
+  <si>
+    <t>saisi MSoliSanté, Louise Bacquet créditée en autrice : embauché par le ccne, https://www.ccne-ethique.fr/sites/default/files/2021-07/Les%20instances%20et%20l%27administration%20du%20CCNE.pdf</t>
+  </si>
+  <si>
+    <t>Christiane Basset,Marie-Germaine Bousser,Claude Delpuech,Anne Durandy-Torre,Pierre-Henri Duée,Marion Muller-Colard</t>
+  </si>
+  <si>
+    <t>Christiane Basset,Carine Camby,Anne-Marie Dickelé,Pierre-Henri Duée,Martine Le Friant,Patrick Gaudray,Florence Gruat,Francis Puech</t>
+  </si>
+  <si>
+    <t>Abdennour Bidar,Roger-Pol Droit,Cynthia Fleury,Patrick Gaudray,Alain Grimfeld,Francis Puech,Claudine Tiercelin,Bertrand Weil</t>
+  </si>
+  <si>
+    <t>Christiane Basset,Laure Coulombel,Frédérique Dreifuss-Netter,Claude Matuchansky,Francis Puech,Philippe Rouvillois,Dominique Stoppa-Lyonnet</t>
+  </si>
+  <si>
+    <t>Michaël Azoulay,François Beaufils,Ali Benmakhlouf,Alain Claeys, André Comte-Sponville,Anne-Marie Dickelé,Frédérique Dreifuss-Netter,Jean-Pierre Kahane,Xavier Lacroix,Claude Matuchansky,Francis Puech,Louis Schweitzer,Jean-Louis Vildé,Bertrand Weil</t>
+  </si>
+  <si>
+    <t>Claude Burlet,Claude Matuchansky,Claude Sureau,Jean-Louis Vildé</t>
+  </si>
+  <si>
+    <t>Yves Agid,Jean-Claude Ameisen,Marie-Germaine Bousser,Chantal Lebatard,Pierre Le Coz,Claire Legras,Claude Matuchansky,Philippe Waquet</t>
+  </si>
+  <si>
+    <t>Jean-Claude Ameisen,François Beaufils,Joëlle Belaisch-Allart,Ali Benmakhlouf,Patrick Gaudray,Françoise Héritier,Marie-Thérèse Hermange,Chantal Lebatard,Pierre Le Coz,Jacqueline Mandelbaum,Michel Roux, Danièle Siroux,Claude Sureau,Jean-Louis Vildé,Philippe Waquet</t>
+  </si>
+  <si>
+    <t>Annick Alpérovitch,Ali Benmakhlouf,Claude Burlet,Roger-Pol Droit,Emmanuel Jolivet,Claude Matuchansky,Philippe Rouvillois,Dominique Stoppa-Lyonnet</t>
+  </si>
+  <si>
+    <t>Annick Alpérovitch,Jean-Claude Ameisen,Roger-Pol Droit,Patrick Gaudray,Alain Grimfeld,Haïm Korsia,Chantal Lebatard,Philippe Rouvillois</t>
+  </si>
+  <si>
+    <t>Armand de Ricqlès</t>
+  </si>
+  <si>
+    <t>Anne-Marie Taburet,Louise Bacquet</t>
+  </si>
+  <si>
+    <t>Emmanuel Didier</t>
+  </si>
+  <si>
+    <t>Christine Froidevaux(rapporteur),Jérôme Perrin(rapporteur),Jacques Bringer,Jeany Jean-Baptiste,Valéry Ravix</t>
+  </si>
+  <si>
+    <t>David Gruson(rapporteur),Catherine Adamsbaum, Erik Boucher de Crèvecœur,Raja Chatila,Laurence Devillers,Karine Dognin-Sauze,Valeria Faure-Muntian,Christine Froidevaux,Jean-Gabriel Ganascia,Emmanuel Hirsch,Claude Kirchner</t>
+  </si>
+  <si>
+    <t>Anne Cambon-Thomsen,Hélène Gaumont-Prat,Chantal Lebatard,Martine Loizeau,Jacqueline Mandelbaum,Carole Moquin-Pattey,Dominique Stoppa-Lyonnet,Jean-Claude Ameisen,Sadek Béloucif,Pierre Le Coz,Olivier de Dinechin,Alain Fischer,Jean-Louis Lorrain,Jacques Montagut,Philippe Rouvillois,Maxime Seligmann,Alain-Gérard Slama</t>
+  </si>
+  <si>
+    <t>Pascale Cossart,Mireille Delmas-Marty,Chantal Deschamps,Marie-Jeanne Dien,Jean-Claude Ameisen,Sadek Béloucif,Jean-François Bloch-Lainé,Pierre Le Coz,Jean Michaud</t>
+  </si>
+  <si>
+    <t>Sadek Béloucif,Jean-François Bloch-Lainé,Pascale Cossart,Olivier de Dinechin,Chantal Deschamps,Chantal Lebatard,Jacqueline Mandelbaum,Jacques Montagut,Jean Rosa</t>
+  </si>
+  <si>
+    <t>Gwen Terrenoire</t>
+  </si>
+  <si>
+    <t>Jean-François Bloch-Lainé,Chantal Deschamps,Jacques Montagut,Mario Stasi,Dominique Wolton</t>
+  </si>
+  <si>
+    <t>Hélène Gaumont-Prat,Martine Loizeau,Jean-Paul Caverni,Pierre Le Coz,Jean Michaud,Denys Pellerin, Mario Stasi, Maxime Seligmann,Jacques Montagut</t>
+  </si>
+  <si>
+    <t>Jacques Montagut,Dominique Wolton, Marie-Jeanne Dien</t>
+  </si>
+  <si>
+    <t>Nicole Baumann,Anne Cambon-Thomsen,Monique Canto-Sperber, Blandine Kriegel,Martine Loizeau,Sadek Béloucif, Gérard Bréart</t>
+  </si>
+  <si>
+    <t>Christiane Basset,Margaret Buckingham,Hervé Chneiweiss,Laure Coulombel,Pierre-Henri Duée,Cynthia Fleury,Patrick Gaudray,Francis Puech, Alice René, Bertrand Weil</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2024,7 @@
   <dimension ref="A1:P146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2055,19 +2061,19 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="J1" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="K1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -2076,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O1" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="P1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2096,10 +2102,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>524</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2108,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -2124,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -2133,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2144,19 +2150,19 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>541</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>542</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -2172,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -2181,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2195,10 +2201,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>525</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2207,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2242,19 +2248,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>541</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>543</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -2269,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2283,10 +2289,10 @@
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2295,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1">
         <v>44854</v>
@@ -2310,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -2330,25 +2336,25 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1">
         <v>44742</v>
@@ -2357,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -2371,10 +2377,10 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2383,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1">
         <v>44336</v>
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -2412,10 +2418,10 @@
         <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2424,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1">
         <v>44336</v>
@@ -2439,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -2453,25 +2459,25 @@
         <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1">
         <v>44301</v>
@@ -2497,25 +2503,25 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>527</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>540</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K11" s="1">
         <v>44159</v>
@@ -2524,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
@@ -2533,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2544,25 +2550,25 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1">
         <v>43853</v>
@@ -2571,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -2585,10 +2591,10 @@
         <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2597,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K13" s="1">
         <v>43727</v>
@@ -2612,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -2629,10 +2635,10 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2641,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K14" s="1">
         <v>43727</v>
@@ -2656,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -2665,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2679,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -2691,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1">
         <v>43643</v>
@@ -2706,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -2723,10 +2729,10 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2735,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s">
         <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" t="s">
-        <v>92</v>
       </c>
       <c r="K16" s="1">
         <v>43645</v>
@@ -2750,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -2759,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2770,10 +2776,10 @@
         <v>43252</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -2785,13 +2791,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K17" s="1">
         <v>43361</v>
@@ -2800,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -2817,10 +2823,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2829,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K18" s="1">
         <v>43146</v>
@@ -2844,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2858,10 +2864,10 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>530</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2870,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K19" s="1">
         <v>43024</v>
@@ -2885,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -2899,10 +2905,10 @@
         <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2911,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K20" s="1">
         <v>42901</v>
@@ -2926,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2940,10 +2946,10 @@
         <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>531</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2952,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K21" s="1">
         <v>42893</v>
@@ -2967,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2981,10 +2987,10 @@
         <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2993,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K22" s="1">
         <v>42542</v>
@@ -3008,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -3025,10 +3031,10 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3037,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K23" s="1">
         <v>42091</v>
@@ -3052,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -3061,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3072,10 +3078,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3084,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K24" s="2">
         <v>41671</v>
@@ -3099,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -3113,16 +3119,16 @@
         <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>533</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3131,13 +3137,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K25" s="1">
         <v>41455</v>
@@ -3146,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3155,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -3163,13 +3169,13 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3178,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="K26" s="1">
         <v>41389</v>
@@ -3193,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -3210,10 +3216,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3222,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K27" s="1">
         <v>41326</v>
@@ -3237,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3246,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -3257,10 +3263,10 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3269,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K28" s="1">
         <v>41179</v>
@@ -3284,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3293,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -3304,10 +3310,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>534</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3316,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J29" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K29" s="1">
         <v>40962</v>
@@ -3331,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3345,10 +3351,10 @@
         <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3357,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="J30" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K30" s="1">
         <v>40962</v>
@@ -3372,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3386,10 +3392,10 @@
         <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3398,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K31" s="1">
         <v>40640</v>
@@ -3427,13 +3433,13 @@
         <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>535</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3442,13 +3448,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="J32" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K32" s="1">
         <v>40668</v>
@@ -3457,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -3466,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3474,10 +3480,10 @@
         <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3486,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J33" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K33" s="1">
         <v>40584</v>
@@ -3501,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3518,10 +3524,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3530,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="J34" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K34" s="1">
         <v>40472</v>
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -3559,10 +3565,10 @@
         <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -3574,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="J35" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K35" s="1">
         <v>40185</v>
@@ -3589,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3598,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3606,13 +3612,13 @@
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>536</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3621,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K36" s="1">
         <v>40269</v>
@@ -3636,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3653,10 +3659,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>537</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3665,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J37" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="K37" s="1">
         <v>40213</v>
@@ -3680,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -3694,13 +3700,13 @@
         <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3709,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J38" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K38" s="1">
         <v>40129</v>
@@ -3724,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -3733,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3741,10 +3747,10 @@
         <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3753,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="J39" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K39" s="1">
         <v>40101</v>
@@ -3768,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -3782,13 +3788,13 @@
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3797,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="J40" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K40" s="1">
         <v>39849</v>
@@ -3812,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -3821,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -3832,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -3844,13 +3850,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="J41" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="K41" s="1">
         <v>39730</v>
@@ -3859,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -3876,10 +3882,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3888,13 +3894,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="J42" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="K42" s="1">
         <v>39597</v>
@@ -3903,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -3912,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3923,28 +3929,28 @@
         <v>39127</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+        <v>538</v>
+      </c>
+      <c r="F43" t="s">
+        <v>539</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="J43" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K43" s="1">
         <v>39422</v>
@@ -3953,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -3962,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3973,13 +3979,13 @@
         <v>38543</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3988,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="J44" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="K44" s="1">
         <v>39394</v>
@@ -4003,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -4012,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -4020,10 +4026,10 @@
         <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4032,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="J45" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="K45" s="1">
         <v>39261</v>
@@ -4047,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -4064,7 +4070,7 @@
         <v>39358</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -4079,13 +4085,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="J46" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="K46" s="1">
         <v>39364</v>
@@ -4094,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -4103,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -4111,13 +4117,13 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4126,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="J47" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="K47" s="1">
         <v>39329</v>
@@ -4141,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4150,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4161,10 +4167,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4173,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J48" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="K48" s="1">
         <v>39253</v>
@@ -4188,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -4205,13 +4211,13 @@
         <v>38727</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4220,13 +4226,13 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="J49" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="K49" s="1">
         <v>39212</v>
@@ -4235,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4244,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4255,10 +4261,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4267,13 +4273,13 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="J50" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="K50" s="1">
         <v>39148</v>
@@ -4282,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4299,13 +4305,13 @@
         <v>38813</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="E51" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4314,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="J51" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="K51" s="1">
         <v>39119</v>
@@ -4329,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -4338,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4349,13 +4355,13 @@
         <v>38355</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D52" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4364,13 +4370,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="J52" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="K52" s="1">
         <v>39016</v>
@@ -4379,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -4388,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -4396,13 +4402,13 @@
         <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>544</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4411,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="J53" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K53" s="1">
         <v>38890</v>
@@ -4435,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -4446,10 +4452,10 @@
         <v>38879</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -4461,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="J54" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="K54" s="1">
         <v>38890</v>
@@ -4476,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -4485,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4496,10 +4502,10 @@
         <v>2004</v>
       </c>
       <c r="C55" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -4511,13 +4517,13 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I55" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="J55" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="K55" s="1">
         <v>38764</v>
@@ -4526,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -4535,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -4546,10 +4552,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4558,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="J56" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="K56" s="1">
         <v>38680</v>
@@ -4573,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -4596,7 +4602,7 @@
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4605,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="K57" s="1">
         <v>38617</v>
@@ -4620,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -4637,13 +4643,13 @@
         <v>38316</v>
       </c>
       <c r="C58" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D58" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4652,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I58" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="J58" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="K58" s="1">
         <v>38526</v>
@@ -4667,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -4676,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -4684,10 +4690,10 @@
         <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="E59" t="s">
-        <v>319</v>
+        <v>545</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4696,13 +4702,13 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I59" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="J59" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K59" s="1">
         <v>38821</v>
@@ -4711,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -4728,13 +4734,13 @@
         <v>37987</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="E60" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4743,13 +4749,13 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I60" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="J60" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="K60" s="1">
         <v>38295</v>
@@ -4758,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -4775,13 +4781,13 @@
         <v>38265</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4790,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I61" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J61" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="K61" s="1">
         <v>38295</v>
@@ -4805,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -4825,10 +4831,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E62" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4837,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I62" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J62" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K62" s="1">
         <v>38086</v>
@@ -4852,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -4861,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -4872,28 +4878,28 @@
         <v>37609</v>
       </c>
       <c r="C63" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E63" t="s">
-        <v>321</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
+        <v>546</v>
+      </c>
+      <c r="F63" t="s">
+        <v>547</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I63" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="J63" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="K63" s="1">
         <v>37973</v>
@@ -4902,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
@@ -4911,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -4922,13 +4928,13 @@
         <v>37306</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E64" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4937,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I64" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="J64" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="K64" s="1">
         <v>38023</v>
@@ -4952,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
@@ -4961,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -4975,25 +4981,25 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="E65" t="s">
-        <v>331</v>
+        <v>548</v>
       </c>
       <c r="F65" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I65" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="J65" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="K65" s="1">
         <v>37942</v>
@@ -5002,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N65" t="b">
         <v>0</v>
@@ -5019,13 +5025,13 @@
         <v>37558</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="E66" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5034,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I66" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="J66" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="K66" s="1">
         <v>37959</v>
@@ -5049,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
@@ -5058,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -5069,13 +5075,13 @@
         <v>37713</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="E67" t="s">
-        <v>341</v>
+        <v>549</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5084,13 +5090,13 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I67" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="J67" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="K67" s="1">
         <v>37882</v>
@@ -5099,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N67" t="b">
         <v>0</v>
@@ -5119,10 +5125,10 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="E68" t="s">
-        <v>345</v>
+        <v>550</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5131,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I68" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="K68" s="1">
         <v>37882</v>
@@ -5146,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N68" t="b">
         <v>0</v>
@@ -5155,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -5163,10 +5169,10 @@
         <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="E69" t="s">
-        <v>349</v>
+        <v>551</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5175,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I69" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="J69" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="K69" s="1">
         <v>37700</v>
@@ -5190,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N69" t="b">
         <v>0</v>
@@ -5199,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -5213,10 +5219,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="E70" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5225,13 +5231,13 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I70" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="J70" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="K70" s="1">
         <v>37735</v>
@@ -5240,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N70" t="b">
         <v>0</v>
@@ -5254,7 +5260,7 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -5269,13 +5275,13 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I71" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="J71" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="K71" s="1">
         <v>37602</v>
@@ -5284,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N71" t="b">
         <v>0</v>
@@ -5293,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -5304,7 +5310,7 @@
         <v>37368</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -5319,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I72" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="J72" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="K72" s="1">
         <v>37602</v>
@@ -5334,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="N72" t="b">
         <v>0</v>
@@ -5343,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -5354,13 +5360,13 @@
         <v>37151</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="E73" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5369,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="J73" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="K73" s="1">
         <v>37525</v>
@@ -5384,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N73" t="b">
         <v>0</v>
@@ -5393,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -5416,13 +5422,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I74" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="J74" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="K74" s="1">
         <v>37441</v>
@@ -5431,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N74" t="b">
         <v>0</v>
@@ -5440,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5451,7 +5457,7 @@
         <v>37054</v>
       </c>
       <c r="C75" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
@@ -5466,13 +5472,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I75" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="J75" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="K75" s="1">
         <v>37371</v>
@@ -5481,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
@@ -5490,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -5510,13 +5516,13 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I76" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="J76" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="K76" s="1">
         <v>37238</v>
@@ -5551,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I77" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="J77" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="K77" s="1">
         <v>37203</v>
@@ -5566,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="N77" t="b">
         <v>0</v>
@@ -5598,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I78" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="J78" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="K78" s="1">
         <v>37040</v>
@@ -5613,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N78" t="b">
         <v>0</v>
@@ -5622,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -5645,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I79" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="J79" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="K79" s="1">
         <v>36909</v>
@@ -5660,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N79" t="b">
         <v>1</v>
@@ -5669,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5680,7 +5686,7 @@
         <v>36803</v>
       </c>
       <c r="C80" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
@@ -5695,13 +5701,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I80" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="J80" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="K80" s="1">
         <v>36853</v>
@@ -5710,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
@@ -5719,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5727,7 +5733,7 @@
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -5742,13 +5748,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I81" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="J81" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="K81" s="1">
         <v>36783</v>
@@ -5757,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N81" t="b">
         <v>1</v>
@@ -5766,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5777,7 +5783,7 @@
         <v>36567</v>
       </c>
       <c r="C82" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -5792,13 +5798,13 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I82" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="J82" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="K82" s="1">
         <v>36685</v>
@@ -5807,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N82" t="b">
         <v>0</v>
@@ -5816,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5836,13 +5842,13 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I83" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="J83" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="K83" s="1">
         <v>36552</v>
@@ -5851,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N83" t="b">
         <v>0</v>
@@ -5860,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5886,13 +5892,13 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I84" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="J84" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="K84" s="1">
         <v>36482</v>
@@ -5901,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N84" t="b">
         <v>0</v>
@@ -5910,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5930,13 +5936,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I85" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="J85" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="K85" s="1">
         <v>36322</v>
@@ -5959,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -5974,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I86" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="J86" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="K86" s="1">
         <v>35971</v>
@@ -5989,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N86" t="b">
         <v>0</v>
@@ -6015,13 +6021,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I87" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="J87" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K87" s="1">
         <v>35940</v>
@@ -6030,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N87" t="b">
         <v>0</v>
@@ -6059,13 +6065,13 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I88" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="J88" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="K88" s="1">
         <v>35958</v>
@@ -6100,13 +6106,13 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I89" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="J89" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="K89" s="1">
         <v>35874</v>
@@ -6115,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N89" t="b">
         <v>0</v>
@@ -6141,13 +6147,13 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I90" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="J90" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="K90" s="1">
         <v>35836</v>
@@ -6156,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N90" t="b">
         <v>0</v>
@@ -6185,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I91" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="J91" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="K91" s="1">
         <v>35704</v>
@@ -6200,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N91" t="b">
         <v>0</v>
@@ -6214,7 +6220,7 @@
         <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
@@ -6229,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I92" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="J92" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="K92" s="1">
         <v>35542</v>
@@ -6244,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N92" t="b">
         <v>0</v>
@@ -6270,13 +6276,13 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I93" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="J93" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="K93" s="1">
         <v>35500</v>
@@ -6311,13 +6317,13 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I94" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="J94" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="K94" s="1">
         <v>35500</v>
@@ -6352,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I95" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="J95" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="K95" s="1">
         <v>35419</v>
@@ -6367,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N95" t="b">
         <v>0</v>
@@ -6376,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -6384,7 +6390,7 @@
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -6399,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I96" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="J96" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="K96" s="1">
         <v>35158</v>
@@ -6414,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="N96" t="b">
         <v>0</v>
@@ -6428,7 +6434,7 @@
         <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
         <v>21</v>
@@ -6443,13 +6449,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I97" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="J97" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="K97" s="1">
         <v>35158</v>
@@ -6458,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N97" t="b">
         <v>0</v>
@@ -6472,7 +6478,7 @@
         <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D98" t="s">
         <v>21</v>
@@ -6487,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I98" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="J98" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="K98" s="1">
         <v>35131</v>
@@ -6502,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N98" t="b">
         <v>0</v>
@@ -6511,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -6522,7 +6528,7 @@
         <v>34596</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D99" t="s">
         <v>21</v>
@@ -6537,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I99" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="J99" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="K99" s="1">
         <v>35074</v>
@@ -6552,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N99" t="b">
         <v>0</v>
@@ -6561,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -6581,13 +6587,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I100" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="J100" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="K100" s="1">
         <v>35002</v>
@@ -6596,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N100" t="b">
         <v>0</v>
@@ -6625,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I101" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="J101" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="K101" s="1">
         <v>34850</v>
@@ -6640,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N101" t="b">
         <v>0</v>
@@ -6666,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I102" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J102" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K102" s="1">
         <v>34669</v>
@@ -6681,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N102" t="b">
         <v>0</v>
@@ -6713,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I103" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="J103" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="K103" s="1">
         <v>34661</v>
@@ -6728,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N103" t="b">
         <v>0</v>
@@ -6737,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="P103" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -6757,13 +6763,13 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I104" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="J104" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="K104" s="1">
         <v>34423</v>
@@ -6772,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N104" t="b">
         <v>0</v>
@@ -6798,13 +6804,13 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I105" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="J105" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="K105" s="1">
         <v>34320</v>
@@ -6813,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N105" t="b">
         <v>0</v>
@@ -6842,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I106" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="J106" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="K106" s="1">
         <v>34320</v>
@@ -6857,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="N106" t="b">
         <v>1</v>
@@ -6871,7 +6877,7 @@
         <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="D107" t="s">
         <v>21</v>
@@ -6886,13 +6892,13 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I107" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="J107" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="K107" s="1">
         <v>34310</v>
@@ -6901,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N107" t="b">
         <v>0</v>
@@ -6915,7 +6921,7 @@
         <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="D108" t="s">
         <v>21</v>
@@ -6930,13 +6936,13 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I108" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="J108" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="K108" s="1">
         <v>34256</v>
@@ -6945,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N108" t="b">
         <v>0</v>
@@ -6959,7 +6965,7 @@
         <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D109" t="s">
         <v>21</v>
@@ -6974,13 +6980,13 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I109" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="J109" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="K109" s="1">
         <v>34142</v>
@@ -6989,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N109" t="b">
         <v>0</v>
@@ -7015,13 +7021,13 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I110" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="J110" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="K110" s="1">
         <v>34142</v>
@@ -7030,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N110" t="b">
         <v>0</v>
@@ -7044,7 +7050,7 @@
         <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -7059,13 +7065,13 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I111" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="J111" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="K111" s="1">
         <v>34107</v>
@@ -7074,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N111" t="b">
         <v>0</v>
@@ -7100,13 +7106,13 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I112" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="J112" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="K112" s="1">
         <v>34009</v>
@@ -7115,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N112" t="b">
         <v>0</v>
@@ -7141,13 +7147,13 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I113" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="J113" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="K113" s="1">
         <v>33988</v>
@@ -7156,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N113" t="b">
         <v>0</v>
@@ -7185,13 +7191,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I114" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="J114" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="K114" s="1">
         <v>33795</v>
@@ -7200,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N114" t="b">
         <v>0</v>
@@ -7209,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -7229,13 +7235,13 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I115" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="J115" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="K115" s="1">
         <v>33691</v>
@@ -7244,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N115" t="b">
         <v>0</v>
@@ -7270,13 +7276,13 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I116" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="J116" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="K116" s="1">
         <v>33630</v>
@@ -7285,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N116" t="b">
         <v>0</v>
@@ -7311,13 +7317,13 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I117" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="J117" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="K117" s="1">
         <v>33630</v>
@@ -7326,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N117" t="b">
         <v>0</v>
@@ -7335,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="P117" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -7355,13 +7361,13 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I118" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="J118" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="K118" s="1">
         <v>33574</v>
@@ -7370,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N118" t="b">
         <v>0</v>
@@ -7379,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="P118" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -7387,7 +7393,7 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="D119" t="s">
         <v>21</v>
@@ -7402,13 +7408,13 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I119" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="J119" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="K119" s="1">
         <v>33574</v>
@@ -7417,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N119" t="b">
         <v>0</v>
@@ -7426,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="P119" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -7446,13 +7452,13 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I120" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="J120" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="K120" s="1">
         <v>33413</v>
@@ -7461,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N120" t="b">
         <v>0</v>
@@ -7487,13 +7493,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I121" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="J121" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="K121" s="1">
         <v>33413</v>
@@ -7502,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N121" t="b">
         <v>0</v>
@@ -7528,13 +7534,13 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I122" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="J122" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="K122" s="1">
         <v>33413</v>
@@ -7543,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="N122" t="b">
         <v>0</v>
@@ -7569,13 +7575,13 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I123" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="J123" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="K123" s="1">
         <v>33220</v>
@@ -7584,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N123" t="b">
         <v>0</v>
@@ -7610,13 +7616,13 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I124" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="J124" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="K124" s="1">
         <v>33220</v>
@@ -7625,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N124" t="b">
         <v>0</v>
@@ -7651,13 +7657,13 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I125" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="J125" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="K125" s="1">
         <v>33220</v>
@@ -7666,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N125" t="b">
         <v>0</v>
@@ -7692,13 +7698,13 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I126" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="J126" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="K126" s="1">
         <v>33072</v>
@@ -7707,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N126" t="b">
         <v>0</v>
@@ -7733,13 +7739,13 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I127" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="J127" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="K127" s="1">
         <v>33072</v>
@@ -7748,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N127" t="b">
         <v>0</v>
@@ -7774,13 +7780,13 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I128" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="J128" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="K128" s="1">
         <v>32857</v>
@@ -7789,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N128" t="b">
         <v>0</v>
@@ -7815,13 +7821,13 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I129" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="J129" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="K129" s="1">
         <v>32857</v>
@@ -7830,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N129" t="b">
         <v>0</v>
@@ -7856,13 +7862,13 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I130" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="J130" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="K130" s="1">
         <v>32797</v>
@@ -7871,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
@@ -7885,7 +7891,7 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="D131" t="s">
         <v>21</v>
@@ -7900,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I131" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="J131" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="K131" s="1">
         <v>32797</v>
@@ -7915,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N131" t="b">
         <v>0</v>
@@ -7944,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I132" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="J132" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="K132" s="1">
         <v>32493</v>
@@ -7959,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N132" t="b">
         <v>0</v>
@@ -7985,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I133" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="J133" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="K133" s="1">
         <v>32454</v>
@@ -8000,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N133" t="b">
         <v>0</v>
@@ -8026,13 +8032,13 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I134" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="J134" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="K134" s="1">
         <v>32454</v>
@@ -8067,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I135" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="J135" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="K135" s="1">
         <v>32117</v>
@@ -8082,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N135" t="b">
         <v>0</v>
@@ -8096,7 +8102,7 @@
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D136" t="s">
         <v>21</v>
@@ -8111,13 +8117,13 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I136" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="J136" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="K136" s="1">
         <v>32127</v>
@@ -8126,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="N136" t="b">
         <v>1</v>
@@ -8152,13 +8158,13 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I137" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="J137" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="K137" s="1">
         <v>31831</v>
@@ -8193,13 +8199,13 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I138" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="J138" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="K138" s="1">
         <v>31761</v>
@@ -8208,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N138" t="b">
         <v>0</v>
@@ -8222,7 +8228,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D139" t="s">
         <v>21</v>
@@ -8237,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I139" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="J139" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="K139" s="1">
         <v>31467</v>
@@ -8252,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N139" t="b">
         <v>0</v>
@@ -8266,7 +8272,7 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="D140" t="s">
         <v>21</v>
@@ -8281,13 +8287,13 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I140" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="J140" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="K140" s="1">
         <v>31180</v>
@@ -8296,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N140" t="b">
         <v>0</v>
@@ -8322,13 +8328,13 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I141" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="J141" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="K141" s="1">
         <v>31180</v>
@@ -8337,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N141" t="b">
         <v>0</v>
@@ -8351,7 +8357,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D142" t="s">
         <v>21</v>
@@ -8366,13 +8372,13 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I142" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="J142" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="K142" s="1">
         <v>31203</v>
@@ -8381,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N142" t="b">
         <v>0</v>
@@ -8390,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="P142" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -8410,13 +8416,13 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I143" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="J143" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="K143" s="1">
         <v>30978</v>
@@ -8425,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N143" t="b">
         <v>0</v>
@@ -8454,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I144" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="J144" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="K144" s="1">
         <v>30935</v>
@@ -8469,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N144" t="b">
         <v>0</v>
@@ -8483,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D145" t="s">
         <v>21</v>
@@ -8498,13 +8504,13 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I145" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="J145" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="K145" s="1">
         <v>30824</v>
@@ -8545,25 +8551,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="K1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8574,28 +8580,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J2" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="K2" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="M2" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="N2" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8603,7 +8609,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8613,40 +8619,40 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1572" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27808F61-6838-4BF8-8FA7-EF410B0ACC4D}"/>
+  <xr:revisionPtr revIDLastSave="1581" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7029276-02ED-42FE-9F9D-8B8636E92832}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2023,22 +2023,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="0.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="40.42578125" customWidth="1"/>
+    <col min="10" max="10" width="102.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1581" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7029276-02ED-42FE-9F9D-8B8636E92832}"/>
+  <xr:revisionPtr revIDLastSave="1681" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C35D3C-F105-4929-8BFA-864BCC852876}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18885" yWindow="0" windowWidth="10020" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="559">
   <si>
     <t>num</t>
   </si>
@@ -1698,6 +1698,24 @@
   </si>
   <si>
     <t>Christiane Basset,Margaret Buckingham,Hervé Chneiweiss,Laure Coulombel,Pierre-Henri Duée,Cynthia Fleury,Patrick Gaudray,Francis Puech, Alice René, Bertrand Weil</t>
+  </si>
+  <si>
+    <t>citations_autres_avis</t>
+  </si>
+  <si>
+    <t>58;57;63;13;71</t>
+  </si>
+  <si>
+    <t>69;40</t>
+  </si>
+  <si>
+    <t>une absentation</t>
+  </si>
+  <si>
+    <t>79;81;84</t>
+  </si>
+  <si>
+    <t>84;27;77</t>
   </si>
 </sst>
 </file>
@@ -2021,30 +2039,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P146"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="0.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="40.42578125" customWidth="1"/>
-    <col min="10" max="10" width="102.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" customWidth="1"/>
-    <col min="13" max="13" width="38" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0.42578125" customWidth="1"/>
+    <col min="5" max="6" width="0.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="38" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="0.140625" customWidth="1"/>
+    <col min="16" max="16" width="80.140625" customWidth="1"/>
+    <col min="17" max="17" width="74.85546875" customWidth="1"/>
+    <col min="18" max="18" width="70.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,8 +2116,11 @@
       <c r="P1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>144</v>
       </c>
@@ -2145,7 +2171,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>143</v>
       </c>
@@ -2193,7 +2219,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>142</v>
       </c>
@@ -2240,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>141</v>
       </c>
@@ -2287,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
@@ -2328,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>139</v>
       </c>
@@ -2375,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>138</v>
       </c>
@@ -2416,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>137</v>
       </c>
@@ -2457,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>136</v>
       </c>
@@ -2498,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>135</v>
       </c>
@@ -2545,7 +2571,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>134</v>
       </c>
@@ -2589,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>133</v>
       </c>
@@ -2630,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>132</v>
       </c>
@@ -2677,7 +2703,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>131</v>
       </c>
@@ -2724,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130</v>
       </c>
@@ -4206,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>97</v>
       </c>
@@ -4256,7 +4282,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>96</v>
       </c>
@@ -4300,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4349,8 +4375,11 @@
       <c r="P51" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4400,7 +4429,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>93</v>
       </c>
@@ -4438,7 +4467,7 @@
         <v>22</v>
       </c>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4446,8 +4475,11 @@
       <c r="P53" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>92</v>
       </c>
@@ -4497,7 +4529,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>91</v>
       </c>
@@ -4546,8 +4578,11 @@
       <c r="P55" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>90</v>
       </c>
@@ -4585,13 +4620,19 @@
         <v>44</v>
       </c>
       <c r="N56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>89</v>
       </c>
@@ -4638,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>88</v>
       </c>
@@ -4688,7 +4729,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>87</v>
       </c>
@@ -4729,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>86</v>
       </c>
@@ -4775,8 +4816,11 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>85</v>
       </c>
@@ -4823,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>84</v>
       </c>
@@ -4872,8 +4916,11 @@
       <c r="P62" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>83</v>
       </c>
@@ -4923,7 +4970,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>82</v>
       </c>
@@ -4971,6 +5018,9 @@
       </c>
       <c r="P64" t="s">
         <v>305</v>
+      </c>
+      <c r="Q64">
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1681" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C35D3C-F105-4929-8BFA-864BCC852876}"/>
+  <xr:revisionPtr revIDLastSave="1691" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E1AB43-8EF3-4FC8-844E-D136906DCBE6}"/>
   <bookViews>
-    <workbookView xWindow="18885" yWindow="0" windowWidth="10020" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="562">
   <si>
     <t>num</t>
   </si>
@@ -1716,6 +1716,15 @@
   </si>
   <si>
     <t>84;27;77</t>
+  </si>
+  <si>
+    <t>94;95;47</t>
+  </si>
+  <si>
+    <t>97;44</t>
+  </si>
+  <si>
+    <t>87;98;91;101</t>
   </si>
 </sst>
 </file>
@@ -2042,8 +2051,8 @@
   <dimension ref="A1:Q146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q52" sqref="Q52"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,7 +3513,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>113</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>112</v>
       </c>
@@ -3589,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>111</v>
       </c>
@@ -3636,7 +3645,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>110</v>
       </c>
@@ -3680,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>109</v>
       </c>
@@ -3724,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>108</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>107</v>
       </c>
@@ -3812,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>106</v>
       </c>
@@ -3859,7 +3868,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>105</v>
       </c>
@@ -3903,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>104</v>
       </c>
@@ -3949,8 +3958,11 @@
       <c r="P42" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>103</v>
       </c>
@@ -3999,8 +4011,11 @@
       <c r="P43" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>102</v>
       </c>
@@ -4049,8 +4064,11 @@
       <c r="P44" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>101</v>
       </c>
@@ -4090,8 +4108,11 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100</v>
       </c>
@@ -4141,7 +4162,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>99</v>
       </c>
@@ -4188,7 +4209,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>98</v>
       </c>
@@ -4230,6 +4251,9 @@
       </c>
       <c r="O48">
         <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -4280,6 +4304,9 @@
       </c>
       <c r="P49" t="s">
         <v>239</v>
+      </c>
+      <c r="Q49">
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1691" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E1AB43-8EF3-4FC8-844E-D136906DCBE6}"/>
+  <xr:revisionPtr revIDLastSave="1704" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7741C9C-8145-43F6-B088-0D39941BC6C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="590">
   <si>
     <t>num</t>
   </si>
@@ -1725,6 +1725,90 @@
   </si>
   <si>
     <t>87;98;91;101</t>
+  </si>
+  <si>
+    <t>140;covid</t>
+  </si>
+  <si>
+    <t>130;141;136</t>
+  </si>
+  <si>
+    <t>140;139;136</t>
+  </si>
+  <si>
+    <t>124;129;130</t>
+  </si>
+  <si>
+    <t>137;130;136;135</t>
+  </si>
+  <si>
+    <t>121;129</t>
+  </si>
+  <si>
+    <t>133;132;129;5;37;49;46;68;107;83;97;120;124</t>
+  </si>
+  <si>
+    <t>57;109;127;128;125;covid;136</t>
+  </si>
+  <si>
+    <t>58;87;130;128;covid</t>
+  </si>
+  <si>
+    <t>57;101;covid</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>124;130;109;129;125;126</t>
+  </si>
+  <si>
+    <t>129;124;46;77;81;98;104;116</t>
+  </si>
+  <si>
+    <t>59;121</t>
+  </si>
+  <si>
+    <t>110;113;124</t>
+  </si>
+  <si>
+    <t>97;109;120;95;46;77;107;104;76;83;5;9;17;19;25;27;30;33;57;90;95;98;100;117</t>
+  </si>
+  <si>
+    <t>116;81</t>
+  </si>
+  <si>
+    <t>58;26;63;65;87</t>
+  </si>
+  <si>
+    <t>107;46;97;101;37;102;5;109;46</t>
+  </si>
+  <si>
+    <t>84;86</t>
+  </si>
+  <si>
+    <t>101;50</t>
+  </si>
+  <si>
+    <t>101;74;25;21;77;93</t>
+  </si>
+  <si>
+    <t>15;43;80;81;87</t>
+  </si>
+  <si>
+    <t>40;60;56;67;69;110;112</t>
+  </si>
+  <si>
+    <t>8;67;1;105;107;60;53;93</t>
+  </si>
+  <si>
+    <t>105;3</t>
+  </si>
+  <si>
+    <t>72;76;83;105;74;97</t>
+  </si>
+  <si>
+    <t>45;8;93;90;101;76;74;58;73;96</t>
   </si>
 </sst>
 </file>
@@ -2050,9 +2134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2156,7 @@
     <col min="14" max="14" width="22.28515625" customWidth="1"/>
     <col min="15" max="15" width="0.140625" customWidth="1"/>
     <col min="16" max="16" width="80.140625" customWidth="1"/>
-    <col min="17" max="17" width="74.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="70.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2171,13 +2255,16 @@
         <v>256</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
         <v>212</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2227,6 +2314,9 @@
       <c r="P3" t="s">
         <v>514</v>
       </c>
+      <c r="Q3" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2274,6 +2364,9 @@
       <c r="O4">
         <v>0</v>
       </c>
+      <c r="Q4" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2321,6 +2414,9 @@
       <c r="O5">
         <v>0</v>
       </c>
+      <c r="Q5" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2362,6 +2458,9 @@
       <c r="O6">
         <v>0</v>
       </c>
+      <c r="Q6" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2409,6 +2508,9 @@
       <c r="O7">
         <v>0</v>
       </c>
+      <c r="Q7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2450,6 +2552,9 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="Q8" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2491,6 +2596,9 @@
       <c r="O9">
         <v>0</v>
       </c>
+      <c r="Q9" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2532,6 +2640,9 @@
       <c r="O10">
         <v>0</v>
       </c>
+      <c r="Q10" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2579,6 +2690,9 @@
       <c r="P11" t="s">
         <v>528</v>
       </c>
+      <c r="Q11" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2623,6 +2737,9 @@
       <c r="O12">
         <v>0</v>
       </c>
+      <c r="Q12" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2664,6 +2781,9 @@
       <c r="O13">
         <v>0</v>
       </c>
+      <c r="Q13" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2711,6 +2831,9 @@
       <c r="P14" t="s">
         <v>213</v>
       </c>
+      <c r="Q14">
+        <v>129</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2758,6 +2881,9 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="Q15">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2805,8 +2931,11 @@
       <c r="P16" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>129</v>
       </c>
@@ -2853,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
@@ -2896,8 +3025,11 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>127</v>
       </c>
@@ -2938,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>126</v>
       </c>
@@ -2973,13 +3105,16 @@
         <v>104</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>125</v>
       </c>
@@ -3019,8 +3154,11 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>124</v>
       </c>
@@ -3060,8 +3198,11 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>123</v>
       </c>
@@ -3107,8 +3248,11 @@
       <c r="P23" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>122</v>
       </c>
@@ -3151,8 +3295,11 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121</v>
       </c>
@@ -3201,8 +3348,11 @@
       <c r="P25" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>120</v>
       </c>
@@ -3245,8 +3395,11 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>119</v>
       </c>
@@ -3292,8 +3445,11 @@
       <c r="P27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>118</v>
       </c>
@@ -3339,8 +3495,11 @@
       <c r="P28" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>117</v>
       </c>
@@ -3383,8 +3542,11 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>116</v>
       </c>
@@ -3424,8 +3586,11 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>115</v>
       </c>
@@ -3466,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>114</v>
       </c>
@@ -3511,6 +3676,9 @@
       </c>
       <c r="P32" t="s">
         <v>214</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -3553,6 +3721,9 @@
       <c r="O33">
         <v>0</v>
       </c>
+      <c r="Q33" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -3592,10 +3763,13 @@
         <v>158</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -3644,6 +3818,9 @@
       <c r="P35" t="s">
         <v>504</v>
       </c>
+      <c r="Q35">
+        <v>89</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3688,6 +3865,9 @@
       <c r="O36">
         <v>0</v>
       </c>
+      <c r="Q36" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -3732,6 +3912,9 @@
       <c r="O37">
         <v>0</v>
       </c>
+      <c r="Q37">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -3779,6 +3962,9 @@
       <c r="P38" t="s">
         <v>221</v>
       </c>
+      <c r="Q38">
+        <v>101</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -3820,6 +4006,9 @@
       <c r="O39">
         <v>0</v>
       </c>
+      <c r="Q39" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -3910,6 +4099,9 @@
       </c>
       <c r="O41">
         <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1704" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7741C9C-8145-43F6-B088-0D39941BC6C8}"/>
+  <xr:revisionPtr revIDLastSave="1769" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC7A60C-312F-494B-95A8-9551C165CF03}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="595">
   <si>
     <t>num</t>
   </si>
@@ -1809,6 +1809,21 @@
   </si>
   <si>
     <t>45;8;93;90;101;76;74;58;73;96</t>
+  </si>
+  <si>
+    <t>1;3</t>
+  </si>
+  <si>
+    <t>3;18</t>
+  </si>
+  <si>
+    <t>1;16;3;8;9;18;19</t>
+  </si>
+  <si>
+    <t>5;21;22;25</t>
+  </si>
+  <si>
+    <t>3;8;18;19;20;24</t>
   </si>
 </sst>
 </file>
@@ -2132,30 +2147,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q146"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="topRight" activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0.42578125" customWidth="1"/>
-    <col min="5" max="6" width="0.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="0.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="38" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="0.140625" customWidth="1"/>
-    <col min="16" max="16" width="80.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="1" customWidth="1"/>
+    <col min="7" max="8" width="0.140625" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="69" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="1.140625" customWidth="1"/>
+    <col min="13" max="13" width="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
     <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="70.85546875" customWidth="1"/>
   </cols>
@@ -6701,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>49</v>
       </c>
@@ -6745,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>48</v>
       </c>
@@ -6792,7 +6807,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>47</v>
       </c>
@@ -6842,7 +6857,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>46</v>
       </c>
@@ -6883,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>45</v>
       </c>
@@ -6927,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>44</v>
       </c>
@@ -6968,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>43</v>
       </c>
@@ -7018,7 +7033,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>42</v>
       </c>
@@ -7058,8 +7073,11 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>41</v>
       </c>
@@ -7100,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>40</v>
       </c>
@@ -7144,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>39</v>
       </c>
@@ -7188,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>38</v>
       </c>
@@ -7232,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>37</v>
       </c>
@@ -7275,8 +7293,11 @@
       <c r="O109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>36</v>
       </c>
@@ -7316,8 +7337,11 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>35</v>
       </c>
@@ -7361,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>34</v>
       </c>
@@ -7402,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>33</v>
       </c>
@@ -7442,8 +7466,11 @@
       <c r="O113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>32</v>
       </c>
@@ -7490,7 +7517,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>31</v>
       </c>
@@ -7530,8 +7557,11 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>30</v>
       </c>
@@ -7571,8 +7601,11 @@
       <c r="O116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>29</v>
       </c>
@@ -7616,7 +7649,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>28</v>
       </c>
@@ -7660,7 +7693,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>27</v>
       </c>
@@ -7706,8 +7739,11 @@
       <c r="P119" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>26</v>
       </c>
@@ -7748,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>25</v>
       </c>
@@ -7788,8 +7824,11 @@
       <c r="O121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24</v>
       </c>
@@ -7830,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23</v>
       </c>
@@ -7870,8 +7909,11 @@
       <c r="O123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -7911,8 +7953,11 @@
       <c r="O124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21</v>
       </c>
@@ -7952,8 +7997,11 @@
       <c r="O125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -7993,8 +8041,11 @@
       <c r="O126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>19</v>
       </c>
@@ -8034,8 +8085,11 @@
       <c r="O127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>18</v>
       </c>
@@ -8075,8 +8129,11 @@
       <c r="O128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>17</v>
       </c>
@@ -8117,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>16</v>
       </c>
@@ -8158,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15</v>
       </c>
@@ -8202,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -8246,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13</v>
       </c>
@@ -8286,8 +8343,11 @@
       <c r="O133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12</v>
       </c>
@@ -8327,8 +8387,11 @@
       <c r="O134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11</v>
       </c>
@@ -8369,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10</v>
       </c>
@@ -8413,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9</v>
       </c>
@@ -8454,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -8489,13 +8552,16 @@
         <v>69</v>
       </c>
       <c r="N138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -8539,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -8583,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -8624,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -8653,7 +8719,7 @@
         <v>495</v>
       </c>
       <c r="K142" s="1">
-        <v>31203</v>
+        <v>31173</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
@@ -8671,7 +8737,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -8712,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -8741,7 +8807,7 @@
         <v>500</v>
       </c>
       <c r="K144" s="1">
-        <v>30935</v>
+        <v>30964</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
@@ -8798,12 +8864,6 @@
       </c>
       <c r="O145">
         <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O146">
-        <f>SUM(O2:O145)</f>
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1769" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC7A60C-312F-494B-95A8-9551C165CF03}"/>
+  <xr:revisionPtr revIDLastSave="1833" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B438FDF7-8893-48B8-BF19-BB56C99E235F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="618">
   <si>
     <t>num</t>
   </si>
@@ -1824,6 +1824,75 @@
   </si>
   <si>
     <t>3;8;18;19;20;24</t>
+  </si>
+  <si>
+    <t>4;5;17;25;30</t>
+  </si>
+  <si>
+    <t>39;40</t>
+  </si>
+  <si>
+    <t>1;23</t>
+  </si>
+  <si>
+    <t>8;9;16;21</t>
+  </si>
+  <si>
+    <t>46;42;24</t>
+  </si>
+  <si>
+    <t>34;39;43;38</t>
+  </si>
+  <si>
+    <t>57;58</t>
+  </si>
+  <si>
+    <t>1;52;53;54;19;8;56;46;4;9;25;38;35;36;41;39;40;43;44;45;49;50;51;54</t>
+  </si>
+  <si>
+    <t>26;42;58;57;59</t>
+  </si>
+  <si>
+    <t>24;42;60</t>
+  </si>
+  <si>
+    <t>60;54;53</t>
+  </si>
+  <si>
+    <t>5;25;37;46;19;42;65;57</t>
+  </si>
+  <si>
+    <t>58;46</t>
+  </si>
+  <si>
+    <t>58;70</t>
+  </si>
+  <si>
+    <t>8;19;60;70</t>
+  </si>
+  <si>
+    <t>72;42</t>
+  </si>
+  <si>
+    <t>25;70;72</t>
+  </si>
+  <si>
+    <t>41;57;17</t>
+  </si>
+  <si>
+    <t>58;73;55;70;71;2;12;57;38</t>
+  </si>
+  <si>
+    <t>45;35;75</t>
+  </si>
+  <si>
+    <t>76;46</t>
+  </si>
+  <si>
+    <t>86;63;65;70;84</t>
+  </si>
+  <si>
+    <t>112;116;109;77;127;105;46;124;120;115;122;126;90;113;26;63;87;108;121;128</t>
   </si>
 </sst>
 </file>
@@ -2149,16 +2218,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A64" sqref="A64:XFD64"/>
+      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="1" customWidth="1"/>
@@ -2996,6 +3065,9 @@
       <c r="O17">
         <v>0</v>
       </c>
+      <c r="Q17" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4368,6 +4440,9 @@
       <c r="P46" t="s">
         <v>222</v>
       </c>
+      <c r="Q46">
+        <v>90</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -4954,7 +5029,7 @@
         <v>165</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5003,6 +5078,9 @@
       <c r="O59">
         <v>0</v>
       </c>
+      <c r="Q59" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -5100,6 +5178,9 @@
       <c r="O61">
         <v>0</v>
       </c>
+      <c r="Q61">
+        <v>79</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -5203,6 +5284,9 @@
       <c r="P63" t="s">
         <v>300</v>
       </c>
+      <c r="Q63" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -5257,7 +5341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>81</v>
       </c>
@@ -5303,8 +5387,11 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>80</v>
       </c>
@@ -5353,8 +5440,11 @@
       <c r="P66" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>79</v>
       </c>
@@ -5400,8 +5490,11 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>78</v>
       </c>
@@ -5450,8 +5543,11 @@
       <c r="P68" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>77</v>
       </c>
@@ -5495,7 +5591,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>76</v>
       </c>
@@ -5541,8 +5637,11 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>75</v>
       </c>
@@ -5588,8 +5687,11 @@
       <c r="P71" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>74</v>
       </c>
@@ -5639,7 +5741,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5688,8 +5790,11 @@
       <c r="P73" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5735,8 +5840,11 @@
       <c r="P74" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -5785,8 +5893,11 @@
       <c r="P75" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>70</v>
       </c>
@@ -5826,8 +5937,11 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>69</v>
       </c>
@@ -5867,8 +5981,11 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>68</v>
       </c>
@@ -5917,8 +6034,11 @@
       <c r="P78" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>67</v>
       </c>
@@ -5964,8 +6084,11 @@
       <c r="P79" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
@@ -6015,7 +6138,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>65</v>
       </c>
@@ -6061,8 +6184,11 @@
       <c r="P81" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>64</v>
       </c>
@@ -6103,7 +6229,7 @@
         <v>42</v>
       </c>
       <c r="N82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -6112,7 +6238,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>63</v>
       </c>
@@ -6155,8 +6281,11 @@
       <c r="P83" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>62</v>
       </c>
@@ -6205,8 +6334,11 @@
       <c r="P84" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>61</v>
       </c>
@@ -6247,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>60</v>
       </c>
@@ -6290,8 +6422,11 @@
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>59</v>
       </c>
@@ -6331,8 +6466,11 @@
       <c r="O87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>58</v>
       </c>
@@ -6375,8 +6513,11 @@
       <c r="O88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -6416,8 +6557,11 @@
       <c r="O89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>56</v>
       </c>
@@ -6458,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>55</v>
       </c>
@@ -6502,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>54</v>
       </c>
@@ -6545,8 +6689,11 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>53</v>
       </c>
@@ -6586,8 +6733,11 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>52</v>
       </c>
@@ -6627,8 +6777,11 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>51</v>
       </c>
@@ -6671,8 +6824,11 @@
       <c r="P95" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>50</v>
       </c>
@@ -6714,6 +6870,9 @@
       </c>
       <c r="O96">
         <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -6897,6 +7056,9 @@
       <c r="O100">
         <v>0</v>
       </c>
+      <c r="Q100" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -6940,6 +7102,9 @@
       </c>
       <c r="O101">
         <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">

--- a/data/raw/collected_metadata/metadata_avis.xlsx
+++ b/data/raw/collected_metadata/metadata_avis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1833" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B438FDF7-8893-48B8-BF19-BB56C99E235F}"/>
+  <xr:revisionPtr revIDLastSave="1835" documentId="11_AD4D9D64A577C15A4A54185C681B52125BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F83D5DE3-1E80-4810-BBC8-9457DB148488}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -2218,9 +2218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="1" sqref="A1:A1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
